--- a/data/schools.2023.xlsx
+++ b/data/schools.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB2F63F-6555-424D-9BE5-01A11732A02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F131F54-7E8D-44AF-879C-A7CDD673EC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="set" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$2:$AC$92</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -448,9 +451,6 @@
     <t>15004</t>
   </si>
   <si>
-    <t>郫都四中</t>
-  </si>
-  <si>
     <t>15009</t>
   </si>
   <si>
@@ -780,6 +780,10 @@
   </si>
   <si>
     <t>新津中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郫都四中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,11 +1166,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1209,13 +1214,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>2</v>
@@ -1236,56 +1241,56 @@
         <v>7</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="R1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="W1" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y1" s="10"/>
       <c r="Z1" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -1296,13 +1301,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="1">
         <v>624</v>
@@ -1401,13 +1406,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" s="1">
         <v>607</v>
@@ -1507,13 +1512,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F4" s="1">
         <v>575</v>
@@ -1613,13 +1618,13 @@
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F5" s="1">
         <v>593</v>
@@ -1720,13 +1725,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F6" s="1">
         <v>570</v>
@@ -1818,21 +1823,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ref="F7:I7" si="13">-1</f>
@@ -1935,13 +1940,13 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" s="1">
         <v>599</v>
@@ -2040,13 +2045,13 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="1">
         <v>617</v>
@@ -2145,13 +2150,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="1">
         <v>637</v>
@@ -2250,13 +2255,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" s="1">
         <v>643</v>
@@ -2356,13 +2361,13 @@
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12" s="1">
         <v>553</v>
@@ -2462,13 +2467,13 @@
         <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F13" s="1">
         <v>562</v>
@@ -2567,13 +2572,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F14" s="1">
         <v>595</v>
@@ -2672,13 +2677,13 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" s="1">
         <v>632</v>
@@ -2776,13 +2781,13 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" s="1">
         <v>569</v>
@@ -2881,13 +2886,13 @@
         <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F17" s="1">
         <v>594</v>
@@ -2986,13 +2991,13 @@
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="1">
         <v>608</v>
@@ -3091,13 +3096,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="1">
         <v>608</v>
@@ -3196,13 +3201,13 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F20" s="1">
         <v>587</v>
@@ -3302,13 +3307,13 @@
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F21" s="1">
         <v>590</v>
@@ -3408,13 +3413,13 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F22" s="1">
         <v>585</v>
@@ -3513,13 +3518,13 @@
         <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" s="1">
         <v>618</v>
@@ -3611,21 +3616,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ref="F24:I25" si="36">-1</f>
@@ -3719,21 +3724,21 @@
         <v>880</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="36"/>
@@ -3835,13 +3840,13 @@
         <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26" s="1">
         <v>621</v>
@@ -3931,21 +3936,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" ref="F27:I27" si="42">-1</f>
@@ -4049,13 +4054,13 @@
         <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" s="1">
         <v>649</v>
@@ -4153,13 +4158,13 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29" s="1">
         <v>616</v>
@@ -4257,13 +4262,13 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" s="1">
         <v>585</v>
@@ -4363,13 +4368,13 @@
         <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F31" s="1">
         <v>572</v>
@@ -4467,13 +4472,13 @@
         <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F32" s="1">
         <v>591</v>
@@ -4572,13 +4577,13 @@
         <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F33" s="1">
         <v>606</v>
@@ -4677,13 +4682,13 @@
         <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F34" s="1">
         <v>612</v>
@@ -4781,13 +4786,13 @@
         <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F35" s="1">
         <v>591</v>
@@ -4886,13 +4891,13 @@
         <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F36" s="1">
         <v>578</v>
@@ -4992,13 +4997,13 @@
         <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F37" s="1">
         <v>564</v>
@@ -5098,13 +5103,13 @@
         <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" s="1">
         <v>602</v>
@@ -5204,13 +5209,13 @@
         <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F39" s="1">
         <v>565</v>
@@ -5310,13 +5315,13 @@
         <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F40" s="1">
         <v>629</v>
@@ -5406,21 +5411,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" ref="F41:I41" si="58">-1</f>
@@ -5524,13 +5529,13 @@
         <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F42" s="1">
         <v>619</v>
@@ -5559,7 +5564,7 @@
         <v>282</v>
       </c>
       <c r="N42" s="7">
-        <f>L42-M42</f>
+        <f t="shared" ref="N42:N48" si="62">L42-M42</f>
         <v>18</v>
       </c>
       <c r="O42" s="7">
@@ -5571,39 +5576,39 @@
         <v>-1</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" ref="Q42:Y42" si="62">-1</f>
+        <f t="shared" ref="Q42:Y42" si="63">-1</f>
         <v>-1</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="T42" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="V42" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="W42" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="X42" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="Y42" s="7">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
       <c r="Z42" s="7">
@@ -5630,13 +5635,13 @@
         <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" s="1">
         <v>577</v>
@@ -5665,11 +5670,11 @@
         <v>25</v>
       </c>
       <c r="N43" s="7">
-        <f>L43-M43</f>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="L43:O63" si="63">-1</f>
+        <f t="shared" ref="L43:O63" si="64">-1</f>
         <v>-1</v>
       </c>
       <c r="P43" s="7">
@@ -5677,43 +5682,43 @@
         <v>-1</v>
       </c>
       <c r="Q43" s="7">
-        <f t="shared" ref="Q43:Z52" si="64">-1</f>
+        <f t="shared" ref="Q43:Z52" si="65">-1</f>
         <v>-1</v>
       </c>
       <c r="R43" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="S43" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T43" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="U43" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="V43" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="W43" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="X43" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Y43" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Z43" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="AA43" s="7">
@@ -5737,13 +5742,13 @@
         <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F44" s="1">
         <v>564</v>
@@ -5772,11 +5777,11 @@
         <v>50</v>
       </c>
       <c r="N44" s="7">
-        <f>L44-M44</f>
+        <f t="shared" si="62"/>
         <v>50</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P44" s="7">
@@ -5784,43 +5789,43 @@
         <v>-1</v>
       </c>
       <c r="Q44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="S44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="U44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="V44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="W44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="X44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Y44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Z44" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="AA44" s="7">
@@ -5844,13 +5849,13 @@
         <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" s="1">
         <v>553</v>
@@ -5879,11 +5884,11 @@
         <v>50</v>
       </c>
       <c r="N45" s="7">
-        <f>L45-M45</f>
+        <f t="shared" si="62"/>
         <v>50</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P45" s="7">
@@ -5891,43 +5896,43 @@
         <v>-1</v>
       </c>
       <c r="Q45" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="R45" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="S45" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T45" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="V45" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="W45" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="X45" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Y45" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Z45" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="AA45" s="7">
@@ -5951,13 +5956,13 @@
         <v>93</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F46" s="1">
         <v>563</v>
@@ -5986,11 +5991,11 @@
         <v>50</v>
       </c>
       <c r="N46" s="7">
-        <f>L46-M46</f>
+        <f t="shared" si="62"/>
         <v>50</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P46" s="7">
@@ -5998,55 +6003,55 @@
         <v>-1</v>
       </c>
       <c r="Q46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="S46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="U46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="V46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="W46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="X46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Y46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Z46" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="AA46" s="7">
-        <f t="shared" ref="AA46:AC66" si="65">-1</f>
+        <f t="shared" ref="AA46:AC66" si="66">-1</f>
         <v>-1</v>
       </c>
       <c r="AB46" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC46" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -6055,16 +6060,16 @@
         <v>94</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" s="1">
         <v>555</v>
@@ -6093,11 +6098,11 @@
         <v>25</v>
       </c>
       <c r="N47" s="7">
-        <f>L47-M47</f>
+        <f t="shared" si="62"/>
         <v>25</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P47" s="7">
@@ -6105,55 +6110,55 @@
         <v>-1</v>
       </c>
       <c r="Q47" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="S47" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T47" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="U47" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="V47" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="W47" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="X47" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Y47" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Z47" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="AA47" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB47" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC47" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -6165,13 +6170,13 @@
         <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F48" s="2">
         <v>553</v>
@@ -6200,11 +6205,11 @@
         <v>50</v>
       </c>
       <c r="N48" s="7">
-        <f>L48-M48</f>
+        <f t="shared" si="62"/>
         <v>50</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P48" s="7">
@@ -6212,88 +6217,88 @@
         <v>-1</v>
       </c>
       <c r="Q48" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="S48" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T48" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="U48" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="V48" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="W48" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="X48" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Y48" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Z48" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="AA48" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB48" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC48" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" ref="F49:I49" si="66">-1</f>
+        <f t="shared" ref="F49:I49" si="67">-1</f>
         <v>-1</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-1</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-1</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-1</v>
       </c>
       <c r="J49" s="1">
@@ -6306,15 +6311,15 @@
         <v>1100</v>
       </c>
       <c r="M49" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P49" s="7">
@@ -6322,55 +6327,55 @@
         <v>-1</v>
       </c>
       <c r="Q49" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="R49" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="S49" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T49" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="U49" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="V49" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="W49" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="X49" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Y49" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Z49" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="AA49" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB49" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC49" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -6382,13 +6387,13 @@
         <v>98</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F50" s="1">
         <v>553</v>
@@ -6403,11 +6408,11 @@
         <v>555</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" ref="J50:K61" si="67">-1</f>
+        <f t="shared" ref="J50:K61" si="68">-1</f>
         <v>-1</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L50" s="7">
@@ -6421,7 +6426,7 @@
         <v>25</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P50" s="7">
@@ -6429,64 +6434,64 @@
         <v>-1</v>
       </c>
       <c r="Q50" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="R50" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="S50" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T50" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="U50" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="V50" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="W50" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="X50" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Y50" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Z50" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="AA50" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB50" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC50" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6504,27 +6509,27 @@
         <v>553</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P51" s="7">
@@ -6532,55 +6537,55 @@
         <v>-1</v>
       </c>
       <c r="Q51" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="S51" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T51" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="U51" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="V51" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Y51" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Z51" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="AA51" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC51" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -6589,16 +6594,16 @@
         <v>100</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F52" s="1">
         <v>553</v>
@@ -6613,11 +6618,11 @@
         <v>555</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L52" s="7">
@@ -6627,11 +6632,11 @@
         <v>50</v>
       </c>
       <c r="N52" s="7">
-        <f>L52-M52</f>
+        <f t="shared" ref="N52:N61" si="69">L52-M52</f>
         <v>50</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P52" s="7">
@@ -6639,55 +6644,55 @@
         <v>-1</v>
       </c>
       <c r="Q52" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="R52" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="S52" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="T52" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="U52" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="V52" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="W52" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="X52" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Y52" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="Z52" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1</v>
       </c>
       <c r="AA52" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB52" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC52" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -6699,13 +6704,13 @@
         <v>102</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F53" s="1">
         <v>553</v>
@@ -6720,11 +6725,11 @@
         <v>553</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L53" s="7">
@@ -6734,11 +6739,11 @@
         <v>25</v>
       </c>
       <c r="N53" s="7">
-        <f>L53-M53</f>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P53" s="7">
@@ -6746,55 +6751,55 @@
         <v>-1</v>
       </c>
       <c r="Q53" s="7">
-        <f t="shared" ref="Q53:Z63" si="68">-1</f>
+        <f t="shared" ref="Q53:Z63" si="70">-1</f>
         <v>-1</v>
       </c>
       <c r="R53" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="S53" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="T53" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="U53" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="V53" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="W53" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="X53" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Y53" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Z53" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="AA53" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB53" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC53" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -6806,13 +6811,13 @@
         <v>104</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F54" s="1">
         <v>553</v>
@@ -6827,11 +6832,11 @@
         <v>553</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L54" s="7">
@@ -6841,11 +6846,11 @@
         <v>25</v>
       </c>
       <c r="N54" s="7">
-        <f>L54-M54</f>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P54" s="7">
@@ -6853,55 +6858,55 @@
         <v>-1</v>
       </c>
       <c r="Q54" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="R54" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="S54" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="T54" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="U54" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="V54" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="W54" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="X54" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Y54" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Z54" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="AA54" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB54" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC54" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -6913,13 +6918,13 @@
         <v>106</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F55" s="1">
         <v>553</v>
@@ -6934,11 +6939,11 @@
         <v>553</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L55" s="7">
@@ -6948,85 +6953,85 @@
         <v>25</v>
       </c>
       <c r="N55" s="7">
-        <f>L55-M55</f>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P55" s="7">
-        <f t="shared" ref="P55:P81" si="69">-1</f>
+        <f t="shared" ref="P55:P81" si="71">-1</f>
         <v>-1</v>
       </c>
       <c r="Q55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="R55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="S55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="T55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="U55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="V55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="W55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="X55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Y55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Z55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="AA55" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB55" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC55" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -7041,7 +7046,7 @@
         <v>25</v>
       </c>
       <c r="N56" s="7">
-        <f>L56-M56</f>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="O56" s="7"/>
@@ -7065,16 +7070,16 @@
         <v>107</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F57" s="1">
         <v>553</v>
@@ -7089,11 +7094,11 @@
         <v>556</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L57" s="7">
@@ -7103,67 +7108,67 @@
         <v>25</v>
       </c>
       <c r="N57" s="7">
-        <f>L57-M57</f>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P57" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q57" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="R57" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="S57" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="T57" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="U57" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="V57" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="W57" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="X57" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Y57" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Z57" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="AA57" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB57" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC57" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -7175,13 +7180,13 @@
         <v>109</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F58" s="1">
         <v>553</v>
@@ -7196,11 +7201,11 @@
         <v>553</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L58" s="7">
@@ -7210,67 +7215,67 @@
         <v>75</v>
       </c>
       <c r="N58" s="7">
-        <f>L58-M58</f>
+        <f t="shared" si="69"/>
         <v>75</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P58" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q58" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="R58" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="S58" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="T58" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="U58" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="V58" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="W58" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="X58" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Y58" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Z58" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="AA58" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB58" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC58" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -7282,13 +7287,13 @@
         <v>111</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F59" s="1">
         <v>553</v>
@@ -7303,11 +7308,11 @@
         <v>553</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L59" s="7">
@@ -7317,67 +7322,67 @@
         <v>50</v>
       </c>
       <c r="N59" s="7">
-        <f>L59-M59</f>
+        <f t="shared" si="69"/>
         <v>50</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P59" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q59" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="R59" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="S59" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="T59" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="U59" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="V59" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="W59" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="X59" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Y59" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Z59" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="AA59" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB59" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC59" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -7389,13 +7394,13 @@
         <v>113</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F60" s="1">
         <v>576</v>
@@ -7410,11 +7415,11 @@
         <v>607</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L60" s="7">
@@ -7424,67 +7429,67 @@
         <v>25</v>
       </c>
       <c r="N60" s="7">
-        <f>L60-M60</f>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P60" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q60" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="R60" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="S60" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="T60" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="U60" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="V60" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="W60" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="X60" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Y60" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Z60" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="AA60" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB60" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC60" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -7496,13 +7501,13 @@
         <v>115</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F61" s="1">
         <v>602</v>
@@ -7517,11 +7522,11 @@
         <v>602</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1</v>
       </c>
       <c r="L61" s="7">
@@ -7531,100 +7536,100 @@
         <v>25</v>
       </c>
       <c r="N61" s="7">
-        <f>L61-M61</f>
+        <f t="shared" si="69"/>
         <v>25</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P61" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q61" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="R61" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="S61" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="T61" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="U61" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="V61" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="W61" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="X61" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Y61" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Z61" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="AA61" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB61" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC61" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" ref="F62:I62" si="70">-1</f>
+        <f t="shared" ref="F62:I62" si="72">-1</f>
         <v>-1</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
       <c r="J62" s="1">
@@ -7637,71 +7642,71 @@
         <v>100</v>
       </c>
       <c r="M62" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="N62" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P62" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q62" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="R62" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="S62" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="T62" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="U62" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="V62" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="W62" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="X62" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Y62" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Z62" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="AA62" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB62" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC62" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -7713,13 +7718,13 @@
         <v>118</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F63" s="1">
         <v>576</v>
@@ -7734,11 +7739,11 @@
         <v>578</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" ref="J63:K64" si="71">-1</f>
+        <f t="shared" ref="J63:K64" si="73">-1</f>
         <v>-1</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-1</v>
       </c>
       <c r="L63" s="7">
@@ -7752,63 +7757,63 @@
         <v>50</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-1</v>
       </c>
       <c r="P63" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q63" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="R63" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="S63" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="T63" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="U63" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="V63" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="W63" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="X63" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Y63" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="Z63" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1</v>
       </c>
       <c r="AA63" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB63" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC63" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
@@ -7820,13 +7825,13 @@
         <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64" s="1">
         <v>553</v>
@@ -7841,11 +7846,11 @@
         <v>559</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-1</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-1</v>
       </c>
       <c r="L64" s="7">
@@ -7859,96 +7864,96 @@
         <v>75</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" ref="L64:O77" si="72">-1</f>
+        <f t="shared" ref="M64:O77" si="74">-1</f>
         <v>-1</v>
       </c>
       <c r="P64" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q64" s="7">
-        <f t="shared" ref="Q64:Z77" si="73">-1</f>
+        <f t="shared" ref="Q64:Z77" si="75">-1</f>
         <v>-1</v>
       </c>
       <c r="R64" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S64" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T64" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U64" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V64" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W64" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X64" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y64" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z64" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA64" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB64" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC64" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" ref="F65:I67" si="74">-1</f>
+        <f t="shared" ref="F65:I67" si="76">-1</f>
         <v>-1</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="J65" s="1">
@@ -7961,104 +7966,104 @@
         <v>150</v>
       </c>
       <c r="M65" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="N65" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P65" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q65" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R65" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S65" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T65" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U65" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V65" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W65" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X65" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y65" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z65" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA65" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB65" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC65" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="J66" s="2">
@@ -8071,104 +8076,104 @@
         <v>150</v>
       </c>
       <c r="M66" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="N66" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P66" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q66" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R66" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S66" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T66" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U66" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V66" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W66" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X66" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y66" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z66" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA66" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AB66" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
       <c r="AC66" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>-1</v>
       </c>
       <c r="J67" s="1">
@@ -8181,71 +8186,71 @@
         <v>150</v>
       </c>
       <c r="M67" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="N67" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="O67" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P67" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q67" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R67" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S67" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T67" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U67" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V67" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W67" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X67" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y67" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z67" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA67" s="7">
-        <f t="shared" ref="AA67:AC87" si="75">-1</f>
+        <f t="shared" ref="AA67:AC87" si="77">-1</f>
         <v>-1</v>
       </c>
       <c r="AB67" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC67" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
@@ -8257,13 +8262,13 @@
         <v>125</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F68" s="1">
         <v>576</v>
@@ -8278,11 +8283,11 @@
         <v>584</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" ref="J68:K70" si="76">-1</f>
+        <f t="shared" ref="J68:K70" si="78">-1</f>
         <v>-1</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="L68" s="7">
@@ -8296,63 +8301,63 @@
         <v>50</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P68" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA68" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB68" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC68" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
@@ -8364,13 +8369,13 @@
         <v>127</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F69" s="1">
         <v>553</v>
@@ -8385,11 +8390,11 @@
         <v>566</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="L69" s="7">
@@ -8403,63 +8408,63 @@
         <v>25</v>
       </c>
       <c r="O69" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P69" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q69" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R69" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S69" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T69" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U69" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V69" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W69" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X69" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y69" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z69" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA69" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB69" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC69" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
@@ -8468,16 +8473,16 @@
         <v>128</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F70" s="1">
         <v>553</v>
@@ -8492,11 +8497,11 @@
         <v>562</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="L70" s="7">
@@ -8510,96 +8515,96 @@
         <v>50</v>
       </c>
       <c r="O70" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P70" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q70" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R70" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S70" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T70" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U70" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V70" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W70" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X70" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y70" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z70" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA70" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB70" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC70" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" ref="F71:I72" si="77">-1</f>
+        <f t="shared" ref="F71:I72" si="79">-1</f>
         <v>-1</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="J71" s="1">
@@ -8612,104 +8617,104 @@
         <v>250</v>
       </c>
       <c r="M71" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="N71" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="O71" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P71" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q71" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R71" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S71" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T71" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U71" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V71" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W71" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X71" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y71" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z71" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA71" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB71" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC71" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>-1</v>
       </c>
       <c r="J72" s="1">
@@ -8722,89 +8727,89 @@
         <v>100</v>
       </c>
       <c r="M72" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="N72" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="O72" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P72" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q72" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R72" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S72" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T72" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U72" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V72" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W72" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X72" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y72" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z72" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA72" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB72" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC72" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F73" s="1">
         <v>570</v>
@@ -8819,11 +8824,11 @@
         <v>574</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" ref="J73:K83" si="78">-1</f>
+        <f t="shared" ref="J73:K83" si="80">-1</f>
         <v>-1</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L73" s="7">
@@ -8837,81 +8842,81 @@
         <v>50</v>
       </c>
       <c r="O73" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P73" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q73" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R73" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S73" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T73" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U73" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V73" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W73" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X73" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y73" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z73" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA73" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB73" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC73" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F74" s="1">
         <v>591</v>
@@ -8926,11 +8931,11 @@
         <v>597</v>
       </c>
       <c r="J74" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L74" s="7">
@@ -8944,81 +8949,81 @@
         <v>25</v>
       </c>
       <c r="O74" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P74" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q74" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R74" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S74" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T74" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U74" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V74" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W74" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X74" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y74" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z74" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA74" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB74" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC74" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F75" s="1">
         <v>553</v>
@@ -9033,11 +9038,11 @@
         <v>553</v>
       </c>
       <c r="J75" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L75" s="7">
@@ -9051,81 +9056,81 @@
         <v>50</v>
       </c>
       <c r="O75" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P75" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q75" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R75" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S75" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T75" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U75" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V75" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W75" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X75" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y75" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z75" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA75" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB75" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC75" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F76" s="1">
         <v>553</v>
@@ -9140,11 +9145,11 @@
         <v>553</v>
       </c>
       <c r="J76" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L76" s="7">
@@ -9158,81 +9163,81 @@
         <v>25</v>
       </c>
       <c r="O76" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P76" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q76" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R76" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S76" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T76" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U76" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V76" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W76" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X76" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y76" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z76" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA76" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB76" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC76" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F77" s="1">
         <v>553</v>
@@ -9247,11 +9252,11 @@
         <v>563</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L77" s="7">
@@ -9265,81 +9270,81 @@
         <v>25</v>
       </c>
       <c r="O77" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>-1</v>
       </c>
       <c r="P77" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q77" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="R77" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="S77" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="T77" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="U77" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="V77" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="W77" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="X77" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Y77" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="Z77" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AA77" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB77" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC77" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F78" s="1">
         <v>602</v>
@@ -9354,11 +9359,11 @@
         <v>603</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L78" s="8">
@@ -9368,83 +9373,83 @@
         <v>307</v>
       </c>
       <c r="N78" s="7">
-        <f t="shared" ref="N78:N83" si="79">L78-M78</f>
+        <f t="shared" ref="N78:N83" si="81">L78-M78</f>
         <v>43</v>
       </c>
       <c r="O78" s="7">
         <v>100</v>
       </c>
       <c r="P78" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q78" s="7">
-        <f t="shared" ref="Q78:Y80" si="80">-1</f>
+        <f t="shared" ref="Q78:Y80" si="82">-1</f>
         <v>-1</v>
       </c>
       <c r="R78" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="S78" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="T78" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="U78" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="V78" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="W78" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="X78" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="Y78" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="Z78" s="7">
         <v>154</v>
       </c>
       <c r="AA78" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB78" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC78" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F79" s="1">
         <v>581</v>
@@ -9459,11 +9464,11 @@
         <v>594</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L79" s="8">
@@ -9473,83 +9478,83 @@
         <v>282</v>
       </c>
       <c r="N79" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>18</v>
       </c>
       <c r="O79" s="7">
         <v>100</v>
       </c>
       <c r="P79" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q79" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="R79" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="S79" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="T79" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="U79" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="V79" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="W79" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="X79" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="Y79" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="Z79" s="7">
         <v>141</v>
       </c>
       <c r="AA79" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB79" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC79" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F80" s="1">
         <v>607</v>
@@ -9564,11 +9569,11 @@
         <v>605</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L80" s="8">
@@ -9578,83 +9583,83 @@
         <v>307</v>
       </c>
       <c r="N80" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>93</v>
       </c>
       <c r="O80" s="7">
         <v>50</v>
       </c>
       <c r="P80" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q80" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="R80" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="S80" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="T80" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="U80" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="V80" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="W80" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="X80" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="Y80" s="7">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-1</v>
       </c>
       <c r="Z80" s="7">
         <v>154</v>
       </c>
       <c r="AA80" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB80" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC80" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F81" s="1">
         <v>638</v>
@@ -9663,17 +9668,17 @@
         <v>1328</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I81" s="1">
         <v>638</v>
       </c>
       <c r="J81" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L81" s="7">
@@ -9683,15 +9688,15 @@
         <v>462</v>
       </c>
       <c r="N81" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>33</v>
       </c>
       <c r="O81" s="7">
-        <f t="shared" ref="O81:O82" si="81">-1</f>
+        <f t="shared" ref="O81:O82" si="83">-1</f>
         <v>-1</v>
       </c>
       <c r="P81" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>-1</v>
       </c>
       <c r="Q81" s="7">
@@ -9705,60 +9710,60 @@
         <v>3</v>
       </c>
       <c r="T81" s="7">
-        <f t="shared" ref="T81:V81" si="82">-1</f>
+        <f t="shared" ref="T81:V81" si="84">-1</f>
         <v>-1</v>
       </c>
       <c r="U81" s="7">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="V81" s="7">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>-1</v>
       </c>
       <c r="W81" s="7">
         <v>20</v>
       </c>
       <c r="X81" s="7">
-        <f t="shared" ref="X81:Z81" si="83">-1</f>
+        <f t="shared" ref="X81:Z81" si="85">-1</f>
         <v>-1</v>
       </c>
       <c r="Y81" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="Z81" s="7">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>-1</v>
       </c>
       <c r="AA81" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB81" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC81" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F82" s="1">
         <v>598</v>
@@ -9773,11 +9778,11 @@
         <v>593</v>
       </c>
       <c r="J82" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L82" s="8">
@@ -9787,84 +9792,84 @@
         <v>401</v>
       </c>
       <c r="N82" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>99</v>
       </c>
       <c r="O82" s="7">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>-1</v>
       </c>
       <c r="P82" s="7">
-        <f t="shared" ref="P82:Y83" si="84">-1</f>
+        <f t="shared" ref="P82:Y83" si="86">-1</f>
         <v>-1</v>
       </c>
       <c r="Q82" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="R82" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="S82" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="T82" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="U82" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="V82" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="W82" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="X82" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="Y82" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="Z82" s="7">
         <v>201</v>
       </c>
       <c r="AA82" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB82" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC82" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F83" s="2">
         <v>626</v>
@@ -9879,11 +9884,11 @@
         <v>621</v>
       </c>
       <c r="J83" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-1</v>
       </c>
       <c r="L83" s="8">
@@ -9893,98 +9898,98 @@
         <v>282</v>
       </c>
       <c r="N83" s="7">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>68</v>
       </c>
       <c r="O83" s="7">
         <v>50</v>
       </c>
       <c r="P83" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="Q83" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="R83" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="S83" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="T83" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="U83" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="V83" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="W83" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="X83" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="Y83" s="7">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>-1</v>
       </c>
       <c r="Z83" s="7">
         <v>141</v>
       </c>
       <c r="AA83" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB83" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC83" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" ref="F84:I84" si="85">-1</f>
+        <f t="shared" ref="F84:I84" si="87">-1</f>
         <v>-1</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>-1</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>-1</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>-1</v>
       </c>
       <c r="J84" s="1">
@@ -9997,89 +10002,89 @@
         <v>700</v>
       </c>
       <c r="M84" s="7">
-        <f t="shared" ref="M84:N84" si="86">-1</f>
+        <f t="shared" ref="M84:N84" si="88">-1</f>
         <v>-1</v>
       </c>
       <c r="N84" s="7">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>-1</v>
       </c>
       <c r="O84" s="7">
-        <f t="shared" ref="O84:O86" si="87">-1</f>
+        <f t="shared" ref="O84:O86" si="89">-1</f>
         <v>-1</v>
       </c>
       <c r="P84" s="7">
-        <f t="shared" ref="P84:Z84" si="88">-1</f>
+        <f t="shared" ref="P84:Z84" si="90">-1</f>
         <v>-1</v>
       </c>
       <c r="Q84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="R84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="S84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="T84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="U84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="V84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="W84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="X84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="Y84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="Z84" s="7">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
       <c r="AA84" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB84" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC84" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F85" s="1">
         <v>625</v>
@@ -10094,11 +10099,11 @@
         <v>624</v>
       </c>
       <c r="J85" s="3">
-        <f t="shared" ref="J85:K87" si="89">-1</f>
+        <f t="shared" ref="J85:K87" si="91">-1</f>
         <v>-1</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>-1</v>
       </c>
       <c r="L85" s="8">
@@ -10112,80 +10117,80 @@
         <v>71</v>
       </c>
       <c r="O85" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>-1</v>
       </c>
       <c r="P85" s="7">
-        <f t="shared" ref="P85:Y87" si="90">-1</f>
+        <f t="shared" ref="P85:Y87" si="92">-1</f>
         <v>-1</v>
       </c>
       <c r="Q85" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="R85" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="S85" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="T85" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="U85" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="V85" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="W85" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="X85" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="Y85" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="Z85" s="7">
         <v>165</v>
       </c>
       <c r="AA85" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB85" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC85" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F86" s="1">
         <v>553</v>
@@ -10200,11 +10205,11 @@
         <v>553</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>-1</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>-1</v>
       </c>
       <c r="L86" s="8">
@@ -10218,80 +10223,80 @@
         <v>50</v>
       </c>
       <c r="O86" s="7">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>-1</v>
       </c>
       <c r="P86" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="Q86" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="R86" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="S86" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="T86" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="U86" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="V86" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="W86" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="X86" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="Y86" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="Z86" s="7">
         <v>25</v>
       </c>
       <c r="AA86" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB86" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC86" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F87" s="1">
         <v>565</v>
@@ -10306,11 +10311,11 @@
         <v>564</v>
       </c>
       <c r="J87" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>-1</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>-1</v>
       </c>
       <c r="L87" s="8">
@@ -10327,91 +10332,91 @@
         <v>50</v>
       </c>
       <c r="P87" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="Q87" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="R87" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="S87" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="T87" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="U87" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="V87" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="W87" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="X87" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="Y87" s="7">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>-1</v>
       </c>
       <c r="Z87" s="7">
         <v>388</v>
       </c>
       <c r="AA87" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AB87" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
       <c r="AC87" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>21017</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" ref="F88:I88" si="91">-1</f>
+        <f t="shared" ref="F88:I88" si="93">-1</f>
         <v>-1</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>-1</v>
       </c>
       <c r="H88" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>-1</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>-1</v>
       </c>
       <c r="J88" s="1">
@@ -10424,66 +10429,66 @@
         <v>700</v>
       </c>
       <c r="M88" s="7">
-        <f t="shared" ref="M88:N88" si="92">-1</f>
+        <f t="shared" ref="M88:N88" si="94">-1</f>
         <v>-1</v>
       </c>
       <c r="N88" s="7">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-1</v>
       </c>
       <c r="O88" s="8">
         <v>25</v>
       </c>
       <c r="P88" s="7">
-        <f t="shared" ref="P88:AB88" si="93">-1</f>
+        <f t="shared" ref="P88:AB88" si="95">-1</f>
         <v>-1</v>
       </c>
       <c r="Q88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="R88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="S88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="T88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="U88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="V88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="W88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="X88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="Y88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="Z88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="AA88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="AB88" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>-1</v>
       </c>
       <c r="AC88" s="7">
@@ -10492,19 +10497,19 @@
     </row>
     <row r="89" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>163</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F89" s="1">
         <v>562</v>
@@ -10519,11 +10524,11 @@
         <v>572</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" ref="J89:K92" si="94">-1</f>
+        <f t="shared" ref="J89:K92" si="96">-1</f>
         <v>-1</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="L89" s="7">
@@ -10537,81 +10542,81 @@
         <v>25</v>
       </c>
       <c r="O89" s="7">
-        <f t="shared" ref="L89:U92" si="95">-1</f>
+        <f t="shared" ref="O89:U92" si="97">-1</f>
         <v>-1</v>
       </c>
       <c r="P89" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="Q89" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="R89" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="S89" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="T89" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="U89" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="V89" s="7">
-        <f t="shared" ref="V89:AC92" si="96">-1</f>
+        <f t="shared" ref="V89:AC92" si="98">-1</f>
         <v>-1</v>
       </c>
       <c r="W89" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="X89" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="Y89" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="Z89" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AA89" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AB89" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AC89" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F90" s="1">
         <v>554</v>
@@ -10620,17 +10625,17 @@
         <v>14415</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I90" s="1">
         <v>564</v>
       </c>
       <c r="J90" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="L90" s="7">
@@ -10644,81 +10649,81 @@
         <v>25</v>
       </c>
       <c r="O90" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="P90" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="Q90" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="R90" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="S90" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="T90" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="U90" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="V90" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="W90" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="X90" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="Y90" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="Z90" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AA90" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AB90" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AC90" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F91" s="1">
         <v>610</v>
@@ -10733,11 +10738,11 @@
         <v>602</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="L91" s="7">
@@ -10751,81 +10756,81 @@
         <v>50</v>
       </c>
       <c r="O91" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="P91" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="Q91" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="R91" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="S91" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="T91" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="U91" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="V91" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="W91" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="X91" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="Y91" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="Z91" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AA91" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AB91" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AC91" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F92" s="1">
         <v>619</v>
@@ -10840,11 +10845,11 @@
         <v>616</v>
       </c>
       <c r="J92" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>-1</v>
       </c>
       <c r="L92" s="7">
@@ -10858,67 +10863,74 @@
         <v>50</v>
       </c>
       <c r="O92" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="P92" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="Q92" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="S92" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="T92" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="U92" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>-1</v>
       </c>
       <c r="V92" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="W92" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="Y92" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="Z92" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AA92" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AB92" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
       <c r="AC92" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AC92" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="公办"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10968,29 +10980,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/schools.2023.xlsx
+++ b/data/schools.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F131F54-7E8D-44AF-879C-A7CDD673EC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01331D56-698D-4AA8-9710-CB823AD9807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1166,12 +1166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1823,7 +1822,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>77</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>171</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>99</v>
       </c>
@@ -7600,7 +7599,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>116</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>121</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>122</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>123</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>129</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>134</v>
       </c>
@@ -9733,8 +9732,7 @@
         <v>-1</v>
       </c>
       <c r="Z81" s="7">
-        <f t="shared" si="85"/>
-        <v>-1</v>
+        <v>231</v>
       </c>
       <c r="AA81" s="7">
         <f t="shared" si="77"/>
@@ -9960,7 +9958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>156</v>
       </c>
@@ -10387,7 +10385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>21017</v>
       </c>
@@ -10924,13 +10922,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AC92" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="公办"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AC92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/schools.2023.xlsx
+++ b/data/schools.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEFE8F7-9ACA-4E64-B2F4-38F8116C2C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B1F80-C6F5-49D5-A2CC-2476A4582770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-1065" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,12 +1164,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1290,7 +1289,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1819,8 +1818,8 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>5616</f>
+        <v>5616</v>
       </c>
       <c r="H7" s="3">
         <f>0</f>
@@ -1903,7 +1902,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
@@ -2912,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>50</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -3542,8 +3541,8 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>10380</f>
+        <v>10380</v>
       </c>
       <c r="H24" s="3">
         <f>0</f>
@@ -3625,7 +3624,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
@@ -3646,8 +3645,8 @@
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>14537</f>
+        <v>14537</v>
       </c>
       <c r="H25" s="3">
         <f>0</f>
@@ -3729,7 +3728,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>53</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
@@ -3850,8 +3849,8 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>14537</f>
+        <v>14537</v>
       </c>
       <c r="H27" s="3">
         <f>0</f>
@@ -3935,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>55</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>61</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>63</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>65</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>66</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>68</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>69</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>71</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>73</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>75</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>77</v>
       </c>
@@ -5269,8 +5268,8 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>10380</f>
+        <v>10380</v>
       </c>
       <c r="H41" s="3">
         <f>0</f>
@@ -5354,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>78</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>169</v>
       </c>
@@ -6095,8 +6094,8 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>14537</f>
+        <v>14537</v>
       </c>
       <c r="H49" s="3">
         <f>0</f>
@@ -7399,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>116</v>
       </c>
@@ -7420,8 +7419,8 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>11104</f>
+        <v>11104</v>
       </c>
       <c r="H62" s="3">
         <f>0</f>
@@ -7711,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>121</v>
       </c>
@@ -7732,8 +7731,8 @@
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>14537</f>
+        <v>14537</v>
       </c>
       <c r="H65" s="3">
         <f>0</f>
@@ -7817,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>122</v>
       </c>
@@ -7838,8 +7837,8 @@
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>13741</f>
+        <v>13741</v>
       </c>
       <c r="H66" s="3">
         <f>0</f>
@@ -7923,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>123</v>
       </c>
@@ -7944,8 +7943,8 @@
         <v>0</v>
       </c>
       <c r="G67" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>14537</f>
+        <v>14537</v>
       </c>
       <c r="H67" s="3">
         <f>0</f>
@@ -8338,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>129</v>
       </c>
@@ -8359,8 +8358,8 @@
         <v>0</v>
       </c>
       <c r="G71" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>14537</f>
+        <v>14537</v>
       </c>
       <c r="H71" s="3">
         <f>0</f>
@@ -8444,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>134</v>
       </c>
@@ -8465,8 +8464,8 @@
         <v>0</v>
       </c>
       <c r="G72" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>14537</f>
+        <v>14537</v>
       </c>
       <c r="H72" s="3">
         <f>0</f>
@@ -9065,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>143</v>
       </c>
@@ -9166,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>145</v>
       </c>
@@ -9267,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>147</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>149</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>151</v>
       </c>
@@ -9569,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>153</v>
       </c>
@@ -9670,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>155</v>
       </c>
@@ -9691,8 +9690,8 @@
         <v>0</v>
       </c>
       <c r="G84" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>14537</f>
+        <v>14537</v>
       </c>
       <c r="H84" s="3">
         <f>0</f>
@@ -9776,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>156</v>
       </c>
@@ -9878,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>157</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>158</v>
       </c>
@@ -10081,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>21017</v>
       </c>
@@ -10102,8 +10101,8 @@
         <v>0</v>
       </c>
       <c r="G88" s="3">
-        <f>0</f>
-        <v>0</v>
+        <f>14537</f>
+        <v>14537</v>
       </c>
       <c r="H88" s="3">
         <f>0</f>
@@ -10598,24 +10597,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB92" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="公办"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="非5+2普高面向5+2招生"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:A1048576" numberStoredAsText="1"/>
-    <ignoredError sqref="N26 S9 S15 N50 S81 S40 N7 N88 N84" formula="1"/>
+    <ignoredError sqref="N26:N27 S9 S15 N49:N50 S81 S40 N7 N88 N84 G24:G25 G7 G27 G41 G49 G62 G65:G67 G71:G72 G84 G88 N41 N62" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/data/schools.2023.xlsx
+++ b/data/schools.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B1F80-C6F5-49D5-A2CC-2476A4582770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADAA1B6-8DDB-4599-A0F9-AB35ED536C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-1065" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,6 +825,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -884,6 +890,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1166,9 +1179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2:X92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1208,7 @@
     <col min="21" max="21" width="8.25" style="5" customWidth="1"/>
     <col min="22" max="22" width="6.625" style="5" customWidth="1"/>
     <col min="23" max="23" width="7.625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="6.5" style="5" customWidth="1"/>
+    <col min="24" max="24" width="6.5" style="13" customWidth="1"/>
     <col min="25" max="25" width="9" style="5"/>
     <col min="26" max="26" width="8.75" style="5" customWidth="1"/>
     <col min="27" max="27" width="8" style="5" customWidth="1"/>
@@ -1273,7 +1286,7 @@
       <c r="W1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>205</v>
       </c>
       <c r="Y1" s="10" t="s">
@@ -1370,9 +1383,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X2" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X2" s="12">
+        <v>56</v>
       </c>
       <c r="Y2" s="7">
         <v>225</v>
@@ -1472,7 +1484,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="12">
         <v>50</v>
       </c>
       <c r="Y3" s="7">
@@ -1573,9 +1585,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X4" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X4" s="12">
+        <v>48</v>
       </c>
       <c r="Y4" s="7">
         <v>175</v>
@@ -1675,9 +1686,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X5" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X5" s="12">
+        <v>60</v>
       </c>
       <c r="Y5" s="7">
         <v>212</v>
@@ -1777,9 +1787,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X6" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X6" s="12">
+        <v>162</v>
       </c>
       <c r="Y6" s="7">
         <v>53</v>
@@ -1882,9 +1891,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X7" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X7" s="12">
+        <v>15</v>
       </c>
       <c r="Y7" s="7">
         <f>0</f>
@@ -1983,7 +1991,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -2083,9 +2091,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X9" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X9" s="12">
+        <v>36</v>
       </c>
       <c r="Y9" s="7">
         <v>147</v>
@@ -2184,9 +2191,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X10" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X10" s="12">
+        <v>60</v>
       </c>
       <c r="Y10" s="7">
         <v>235</v>
@@ -2286,9 +2292,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X11" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X11" s="12">
+        <v>46</v>
       </c>
       <c r="Y11" s="7">
         <v>188</v>
@@ -2388,9 +2393,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X12" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X12" s="12">
+        <v>54</v>
       </c>
       <c r="Y12" s="7">
         <v>204</v>
@@ -2490,8 +2494,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X13" s="7">
-        <v>50</v>
+      <c r="X13" s="12">
+        <v>36</v>
       </c>
       <c r="Y13" s="7">
         <v>181</v>
@@ -2591,7 +2595,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="12">
         <v>50</v>
       </c>
       <c r="Y14" s="7">
@@ -2690,9 +2694,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X15" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X15" s="12">
+        <v>78</v>
       </c>
       <c r="Y15" s="7">
         <v>285</v>
@@ -2792,7 +2795,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -2892,8 +2895,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X17" s="7">
-        <v>120</v>
+      <c r="X17" s="12">
+        <v>36</v>
       </c>
       <c r="Y17" s="7">
         <v>141</v>
@@ -2993,8 +2996,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X18" s="7">
-        <v>50</v>
+      <c r="X18" s="12">
+        <v>40</v>
       </c>
       <c r="Y18" s="7">
         <v>188</v>
@@ -3093,9 +3096,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X19" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X19" s="12">
+        <v>48</v>
       </c>
       <c r="Y19" s="7">
         <v>188</v>
@@ -3195,9 +3197,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X20" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X20" s="12">
+        <v>18</v>
       </c>
       <c r="Y20" s="7">
         <v>141</v>
@@ -3297,7 +3298,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3398,7 +3399,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3500,7 +3501,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3604,7 +3605,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X24" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3708,7 +3709,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3808,9 +3809,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X26" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X26" s="12">
+        <v>19</v>
       </c>
       <c r="Y26" s="7">
         <v>177</v>
@@ -3913,7 +3913,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4014,9 +4014,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X28" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X28" s="12">
+        <v>48</v>
       </c>
       <c r="Y28" s="7">
         <v>235</v>
@@ -4114,9 +4113,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X29" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X29" s="12">
+        <v>60</v>
       </c>
       <c r="Y29" s="7">
         <v>300</v>
@@ -4216,9 +4214,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X30" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X30" s="12">
+        <v>42</v>
       </c>
       <c r="Y30" s="7">
         <v>175</v>
@@ -4317,8 +4314,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X31" s="7">
-        <v>50</v>
+      <c r="X31" s="12">
+        <v>96</v>
       </c>
       <c r="Y31" s="7">
         <v>330</v>
@@ -4417,7 +4414,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4518,7 +4515,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4619,8 +4616,8 @@
       <c r="W34" s="7">
         <v>20</v>
       </c>
-      <c r="X34" s="7">
-        <v>50</v>
+      <c r="X34" s="12">
+        <v>60</v>
       </c>
       <c r="Y34" s="7">
         <v>212</v>
@@ -4720,8 +4717,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X35" s="7">
-        <v>50</v>
+      <c r="X35" s="12">
+        <v>54</v>
       </c>
       <c r="Y35" s="7">
         <v>201</v>
@@ -4821,9 +4818,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X36" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X36" s="12">
+        <v>39</v>
       </c>
       <c r="Y36" s="7">
         <v>154</v>
@@ -4923,7 +4919,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X37" s="7">
+      <c r="X37" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5025,9 +5021,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X38" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X38" s="12">
+        <v>48</v>
       </c>
       <c r="Y38" s="7">
         <v>165</v>
@@ -5127,9 +5122,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X39" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X39" s="12">
+        <v>12</v>
       </c>
       <c r="Y39" s="7">
         <v>107</v>
@@ -5227,9 +5221,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X40" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X40" s="12">
+        <v>56</v>
       </c>
       <c r="Y40" s="7">
         <v>231</v>
@@ -5332,7 +5325,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X41" s="7">
+      <c r="X41" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5435,7 +5428,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X42" s="7">
+      <c r="X42" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5537,7 +5530,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X43" s="7">
+      <c r="X43" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5640,7 +5633,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X44" s="7">
+      <c r="X44" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5743,7 +5736,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X45" s="7">
+      <c r="X45" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5846,7 +5839,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X46" s="7">
+      <c r="X46" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5949,7 +5942,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X47" s="7">
+      <c r="X47" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6052,7 +6045,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X48" s="7">
+      <c r="X48" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6158,7 +6151,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X49" s="7">
+      <c r="X49" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6261,7 +6254,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X50" s="7">
+      <c r="X50" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6363,7 +6356,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X51" s="7">
+      <c r="X51" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6466,7 +6459,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X52" s="7">
+      <c r="X52" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6569,7 +6562,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X53" s="7">
+      <c r="X53" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6672,7 +6665,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X54" s="7">
+      <c r="X54" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6775,7 +6768,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X55" s="7">
+      <c r="X55" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6867,7 +6860,7 @@
       <c r="W56" s="7">
         <v>0</v>
       </c>
-      <c r="X56" s="7">
+      <c r="X56" s="12">
         <v>0</v>
       </c>
       <c r="Y56" s="7">
@@ -6965,7 +6958,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X57" s="7">
+      <c r="X57" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7068,7 +7061,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X58" s="7">
+      <c r="X58" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7171,7 +7164,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X59" s="7">
+      <c r="X59" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7274,7 +7267,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X60" s="7">
+      <c r="X60" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7377,7 +7370,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X61" s="7">
+      <c r="X61" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7483,7 +7476,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X62" s="7">
+      <c r="X62" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7586,7 +7579,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X63" s="7">
+      <c r="X63" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7689,7 +7682,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X64" s="7">
+      <c r="X64" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7795,7 +7788,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X65" s="7">
+      <c r="X65" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7901,7 +7894,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X66" s="7">
+      <c r="X66" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8007,7 +8000,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X67" s="7">
+      <c r="X67" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8110,7 +8103,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X68" s="7">
+      <c r="X68" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8213,7 +8206,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X69" s="7">
+      <c r="X69" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8316,7 +8309,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X70" s="7">
+      <c r="X70" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8422,7 +8415,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X71" s="7">
+      <c r="X71" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8528,7 +8521,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X72" s="7">
+      <c r="X72" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8631,7 +8624,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X73" s="7">
+      <c r="X73" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8734,7 +8727,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X74" s="7">
+      <c r="X74" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8837,7 +8830,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X75" s="7">
+      <c r="X75" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8940,7 +8933,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X76" s="7">
+      <c r="X76" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -9043,7 +9036,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X77" s="7">
+      <c r="X77" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -9145,9 +9138,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X78" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X78" s="12">
+        <v>42</v>
       </c>
       <c r="Y78" s="7">
         <v>154</v>
@@ -9246,9 +9238,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X79" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X79" s="12">
+        <v>36</v>
       </c>
       <c r="Y79" s="7">
         <v>141</v>
@@ -9347,7 +9338,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X80" s="7">
+      <c r="X80" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -9446,9 +9437,8 @@
       <c r="W81" s="7">
         <v>20</v>
       </c>
-      <c r="X81" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X81" s="12">
+        <v>35</v>
       </c>
       <c r="Y81" s="7">
         <v>231</v>
@@ -9548,9 +9538,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X82" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X82" s="12">
+        <v>60</v>
       </c>
       <c r="Y82" s="7">
         <v>201</v>
@@ -9649,9 +9638,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X83" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X83" s="12">
+        <v>36</v>
       </c>
       <c r="Y83" s="7">
         <v>141</v>
@@ -9754,7 +9742,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X84" s="7">
+      <c r="X84" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -9857,7 +9845,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X85" s="7">
+      <c r="X85" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -9959,7 +9947,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X86" s="7">
+      <c r="X86" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10060,9 +10048,8 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X87" s="7">
-        <f>0</f>
-        <v>0</v>
+      <c r="X87" s="12">
+        <v>108</v>
       </c>
       <c r="Y87" s="7">
         <v>388</v>
@@ -10164,7 +10151,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X88" s="7">
+      <c r="X88" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10266,7 +10253,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X89" s="7">
+      <c r="X89" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10369,7 +10356,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X90" s="7">
+      <c r="X90" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10472,7 +10459,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X91" s="7">
+      <c r="X91" s="12">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10575,7 +10562,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X92" s="7">
+      <c r="X92" s="12">
         <f>0</f>
         <v>0</v>
       </c>

--- a/data/schools.2023.xlsx
+++ b/data/schools.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADAA1B6-8DDB-4599-A0F9-AB35ED536C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69754A66-58B5-4D33-B8A4-1D5C2BF60905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-1065" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +831,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -897,6 +903,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1177,11 +1197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB92"/>
+  <dimension ref="A1:AB486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2:X92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1190,8 +1210,8 @@
     <col min="2" max="2" width="18.875" style="9" customWidth="1"/>
     <col min="3" max="4" width="9.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5"/>
+    <col min="6" max="6" width="9" style="18"/>
+    <col min="7" max="7" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="5" customWidth="1"/>
     <col min="10" max="10" width="10" style="5" customWidth="1"/>
@@ -1232,11 +1252,11 @@
       <c r="E1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>4</v>
@@ -1318,11 +1338,11 @@
       <c r="E2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="15">
+        <v>3254</v>
+      </c>
+      <c r="G2" s="1">
         <v>624</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3254</v>
       </c>
       <c r="H2" s="1">
         <v>627</v>
@@ -1418,11 +1438,11 @@
       <c r="E3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="16">
+        <v>6308</v>
+      </c>
+      <c r="G3" s="1">
         <v>607</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6308</v>
       </c>
       <c r="H3" s="1">
         <v>612</v>
@@ -1519,11 +1539,11 @@
       <c r="E4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="16">
+        <v>11408</v>
+      </c>
+      <c r="G4" s="1">
         <v>575</v>
-      </c>
-      <c r="G4" s="1">
-        <v>11408</v>
       </c>
       <c r="H4" s="1">
         <v>583</v>
@@ -1620,11 +1640,11 @@
       <c r="E5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="16">
+        <v>8650</v>
+      </c>
+      <c r="G5" s="1">
         <v>593</v>
-      </c>
-      <c r="G5" s="1">
-        <v>8650</v>
       </c>
       <c r="H5" s="1">
         <v>601</v>
@@ -1721,11 +1741,11 @@
       <c r="E6" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="16">
+        <v>12164</v>
+      </c>
+      <c r="G6" s="1">
         <v>570</v>
-      </c>
-      <c r="G6" s="1">
-        <v>12164</v>
       </c>
       <c r="H6" s="1">
         <v>578</v>
@@ -1822,13 +1842,13 @@
       <c r="E7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="17">
         <f>5616</f>
         <v>5616</v>
+      </c>
+      <c r="G7" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <f>0</f>
@@ -1926,11 +1946,11 @@
       <c r="E8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="16">
+        <v>7642</v>
+      </c>
+      <c r="G8" s="1">
         <v>599</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7642</v>
       </c>
       <c r="H8" s="2">
         <v>604</v>
@@ -2026,11 +2046,11 @@
       <c r="E9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="16">
+        <v>4553</v>
+      </c>
+      <c r="G9" s="1">
         <v>617</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4553</v>
       </c>
       <c r="H9" s="3">
         <f>0</f>
@@ -2126,11 +2146,11 @@
       <c r="E10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="16">
+        <v>1454</v>
+      </c>
+      <c r="G10" s="1">
         <v>637</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1454</v>
       </c>
       <c r="H10" s="3">
         <f>0</f>
@@ -2226,11 +2246,11 @@
       <c r="E11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="16">
+        <v>882</v>
+      </c>
+      <c r="G11" s="1">
         <v>643</v>
-      </c>
-      <c r="G11" s="1">
-        <v>882</v>
       </c>
       <c r="H11" s="3">
         <f>0</f>
@@ -2327,11 +2347,11 @@
       <c r="E12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G12" s="1">
         <v>553</v>
-      </c>
-      <c r="G12" s="1">
-        <v>14537</v>
       </c>
       <c r="H12" s="1">
         <v>589</v>
@@ -2428,11 +2448,11 @@
       <c r="E13" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="15">
+        <v>13323</v>
+      </c>
+      <c r="G13" s="1">
         <v>562</v>
-      </c>
-      <c r="G13" s="2">
-        <v>13323</v>
       </c>
       <c r="H13" s="1">
         <v>572</v>
@@ -2529,11 +2549,11 @@
       <c r="E14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="16">
+        <v>8319</v>
+      </c>
+      <c r="G14" s="1">
         <v>595</v>
-      </c>
-      <c r="G14" s="1">
-        <v>8319</v>
       </c>
       <c r="H14" s="1">
         <v>602</v>
@@ -2630,11 +2650,11 @@
       <c r="E15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="16">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="1">
         <v>632</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2022</v>
       </c>
       <c r="H15" s="3">
         <f>0</f>
@@ -2729,11 +2749,11 @@
       <c r="E16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="16">
+        <v>12324</v>
+      </c>
+      <c r="G16" s="1">
         <v>569</v>
-      </c>
-      <c r="G16" s="1">
-        <v>12324</v>
       </c>
       <c r="H16" s="1">
         <v>576</v>
@@ -2829,11 +2849,11 @@
       <c r="E17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="16">
+        <v>8498</v>
+      </c>
+      <c r="G17" s="1">
         <v>594</v>
-      </c>
-      <c r="G17" s="1">
-        <v>8498</v>
       </c>
       <c r="H17" s="2">
         <v>599</v>
@@ -2930,11 +2950,11 @@
       <c r="E18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="15">
+        <v>6153</v>
+      </c>
+      <c r="G18" s="1">
         <v>608</v>
-      </c>
-      <c r="G18" s="2">
-        <v>6153</v>
       </c>
       <c r="H18" s="1">
         <v>613</v>
@@ -3031,11 +3051,11 @@
       <c r="E19" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="16">
+        <v>6153</v>
+      </c>
+      <c r="G19" s="1">
         <v>608</v>
-      </c>
-      <c r="G19" s="1">
-        <v>6153</v>
       </c>
       <c r="H19" s="1">
         <v>613</v>
@@ -3131,11 +3151,11 @@
       <c r="E20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="16">
+        <v>9605</v>
+      </c>
+      <c r="G20" s="1">
         <v>587</v>
-      </c>
-      <c r="G20" s="1">
-        <v>9605</v>
       </c>
       <c r="H20" s="1">
         <v>592</v>
@@ -3232,11 +3252,11 @@
       <c r="E21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="16">
+        <v>9139</v>
+      </c>
+      <c r="G21" s="1">
         <v>590</v>
-      </c>
-      <c r="G21" s="1">
-        <v>9139</v>
       </c>
       <c r="H21" s="1">
         <v>594</v>
@@ -3334,11 +3354,11 @@
       <c r="E22" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="16">
+        <v>9930</v>
+      </c>
+      <c r="G22" s="1">
         <v>585</v>
-      </c>
-      <c r="G22" s="1">
-        <v>9930</v>
       </c>
       <c r="H22" s="1">
         <v>589</v>
@@ -3435,11 +3455,11 @@
       <c r="E23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="16">
+        <v>4357</v>
+      </c>
+      <c r="G23" s="1">
         <v>618</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4357</v>
       </c>
       <c r="H23" s="1">
         <v>621</v>
@@ -3537,13 +3557,13 @@
       <c r="E24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="17">
         <f>10380</f>
         <v>10380</v>
+      </c>
+      <c r="G24" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <f>0</f>
@@ -3641,13 +3661,13 @@
       <c r="E25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F25" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="17">
         <f>14537</f>
         <v>14537</v>
+      </c>
+      <c r="G25" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <f>0</f>
@@ -3745,11 +3765,11 @@
       <c r="E26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="16">
+        <v>3799</v>
+      </c>
+      <c r="G26" s="1">
         <v>621</v>
-      </c>
-      <c r="G26" s="1">
-        <v>3799</v>
       </c>
       <c r="H26" s="1">
         <v>623</v>
@@ -3844,13 +3864,13 @@
       <c r="E27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="17">
         <f>14537</f>
         <v>14537</v>
+      </c>
+      <c r="G27" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <f>0</f>
@@ -3950,11 +3970,11 @@
       <c r="E28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="16">
+        <v>430</v>
+      </c>
+      <c r="G28" s="1">
         <v>649</v>
-      </c>
-      <c r="G28" s="1">
-        <v>430</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -4049,11 +4069,11 @@
       <c r="E29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="16">
+        <v>4728</v>
+      </c>
+      <c r="G29" s="1">
         <v>616</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4728</v>
       </c>
       <c r="H29" s="1">
         <v>619</v>
@@ -4148,11 +4168,11 @@
       <c r="E30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="16">
+        <v>9930</v>
+      </c>
+      <c r="G30" s="1">
         <v>585</v>
-      </c>
-      <c r="G30" s="1">
-        <v>9930</v>
       </c>
       <c r="H30" s="1">
         <v>589</v>
@@ -4249,11 +4269,11 @@
       <c r="E31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="16">
+        <v>11866</v>
+      </c>
+      <c r="G31" s="1">
         <v>572</v>
-      </c>
-      <c r="G31" s="1">
-        <v>11866</v>
       </c>
       <c r="H31" s="2">
         <v>580</v>
@@ -4349,11 +4369,11 @@
       <c r="E32" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="15">
+        <v>8972</v>
+      </c>
+      <c r="G32" s="1">
         <v>591</v>
-      </c>
-      <c r="G32" s="2">
-        <v>8972</v>
       </c>
       <c r="H32" s="1">
         <v>601</v>
@@ -4450,11 +4470,11 @@
       <c r="E33" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="16">
+        <v>6468</v>
+      </c>
+      <c r="G33" s="1">
         <v>606</v>
-      </c>
-      <c r="G33" s="1">
-        <v>6468</v>
       </c>
       <c r="H33" s="1">
         <v>612</v>
@@ -4551,11 +4571,11 @@
       <c r="E34" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="16">
+        <v>5434</v>
+      </c>
+      <c r="G34" s="1">
         <v>612</v>
-      </c>
-      <c r="G34" s="1">
-        <v>5434</v>
       </c>
       <c r="H34" s="1">
         <v>616</v>
@@ -4651,11 +4671,11 @@
       <c r="E35" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="16">
+        <v>8972</v>
+      </c>
+      <c r="G35" s="1">
         <v>591</v>
-      </c>
-      <c r="G35" s="1">
-        <v>8972</v>
       </c>
       <c r="H35" s="1">
         <v>598</v>
@@ -4752,11 +4772,11 @@
       <c r="E36" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="16">
+        <v>10959</v>
+      </c>
+      <c r="G36" s="1">
         <v>578</v>
-      </c>
-      <c r="G36" s="1">
-        <v>10959</v>
       </c>
       <c r="H36" s="1">
         <v>585</v>
@@ -4853,11 +4873,11 @@
       <c r="E37" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="16">
+        <v>13025</v>
+      </c>
+      <c r="G37" s="1">
         <v>564</v>
-      </c>
-      <c r="G37" s="1">
-        <v>13025</v>
       </c>
       <c r="H37" s="1">
         <v>570</v>
@@ -4955,11 +4975,11 @@
       <c r="E38" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="16">
+        <v>7145</v>
+      </c>
+      <c r="G38" s="1">
         <v>602</v>
-      </c>
-      <c r="G38" s="1">
-        <v>7145</v>
       </c>
       <c r="H38" s="1">
         <v>608</v>
@@ -5056,11 +5076,11 @@
       <c r="E39" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="16">
+        <v>12892</v>
+      </c>
+      <c r="G39" s="1">
         <v>565</v>
-      </c>
-      <c r="G39" s="1">
-        <v>12892</v>
       </c>
       <c r="H39" s="1">
         <v>572</v>
@@ -5157,11 +5177,11 @@
       <c r="E40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="16">
+        <v>2456</v>
+      </c>
+      <c r="G40" s="1">
         <v>629</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2456</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -5256,13 +5276,13 @@
       <c r="E41" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F41" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="F41" s="17">
         <f>10380</f>
         <v>10380</v>
+      </c>
+      <c r="G41" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <f>0</f>
@@ -5362,11 +5382,11 @@
       <c r="E42" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="16">
+        <v>4160</v>
+      </c>
+      <c r="G42" s="1">
         <v>619</v>
-      </c>
-      <c r="G42" s="1">
-        <v>4160</v>
       </c>
       <c r="H42" s="1">
         <v>622</v>
@@ -5464,11 +5484,11 @@
       <c r="E43" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="16">
+        <v>11104</v>
+      </c>
+      <c r="G43" s="1">
         <v>577</v>
-      </c>
-      <c r="G43" s="1">
-        <v>11104</v>
       </c>
       <c r="H43" s="1">
         <v>587</v>
@@ -5567,11 +5587,11 @@
       <c r="E44" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="16">
+        <v>13025</v>
+      </c>
+      <c r="G44" s="1">
         <v>564</v>
-      </c>
-      <c r="G44" s="1">
-        <v>13025</v>
       </c>
       <c r="H44" s="1">
         <v>571</v>
@@ -5670,11 +5690,11 @@
       <c r="E45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G45" s="1">
         <v>553</v>
-      </c>
-      <c r="G45" s="1">
-        <v>14537</v>
       </c>
       <c r="H45" s="1">
         <v>563</v>
@@ -5773,11 +5793,11 @@
       <c r="E46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="16">
+        <v>13159</v>
+      </c>
+      <c r="G46" s="1">
         <v>563</v>
-      </c>
-      <c r="G46" s="1">
-        <v>13159</v>
       </c>
       <c r="H46" s="2">
         <v>572</v>
@@ -5876,11 +5896,11 @@
       <c r="E47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="16">
+        <v>14297</v>
+      </c>
+      <c r="G47" s="1">
         <v>555</v>
-      </c>
-      <c r="G47" s="1">
-        <v>14297</v>
       </c>
       <c r="H47" s="1">
         <v>564</v>
@@ -5979,11 +5999,11 @@
       <c r="E48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="15">
+        <v>14537</v>
+      </c>
+      <c r="G48" s="2">
         <v>553</v>
-      </c>
-      <c r="G48" s="2">
-        <v>14537</v>
       </c>
       <c r="H48" s="1">
         <v>556</v>
@@ -6082,13 +6102,13 @@
       <c r="E49" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="F49" s="17">
         <f>14537</f>
         <v>14537</v>
+      </c>
+      <c r="G49" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <f>0</f>
@@ -6188,11 +6208,11 @@
       <c r="E50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G50" s="1">
         <v>553</v>
-      </c>
-      <c r="G50" s="1">
-        <v>14537</v>
       </c>
       <c r="H50" s="1">
         <v>564</v>
@@ -6291,11 +6311,11 @@
       <c r="E51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G51" s="1">
         <v>553</v>
-      </c>
-      <c r="G51" s="1">
-        <v>14537</v>
       </c>
       <c r="H51" s="2">
         <v>562</v>
@@ -6393,11 +6413,11 @@
       <c r="E52" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G52" s="1">
         <v>553</v>
-      </c>
-      <c r="G52" s="1">
-        <v>14537</v>
       </c>
       <c r="H52" s="1">
         <v>565</v>
@@ -6496,11 +6516,11 @@
       <c r="E53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G53" s="1">
         <v>553</v>
-      </c>
-      <c r="G53" s="1">
-        <v>14537</v>
       </c>
       <c r="H53" s="1">
         <v>557</v>
@@ -6599,11 +6619,11 @@
       <c r="E54" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G54" s="1">
         <v>553</v>
-      </c>
-      <c r="G54" s="1">
-        <v>14537</v>
       </c>
       <c r="H54" s="1">
         <v>566</v>
@@ -6702,11 +6722,11 @@
       <c r="E55" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G55" s="1">
         <v>553</v>
-      </c>
-      <c r="G55" s="1">
-        <v>14537</v>
       </c>
       <c r="H55" s="1">
         <v>561</v>
@@ -6805,7 +6825,7 @@
       <c r="E56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="16">
         <v>0</v>
       </c>
       <c r="G56" s="1">
@@ -6892,11 +6912,11 @@
       <c r="E57" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G57" s="1">
         <v>553</v>
-      </c>
-      <c r="G57" s="1">
-        <v>14537</v>
       </c>
       <c r="H57" s="2">
         <v>561</v>
@@ -6995,11 +7015,11 @@
       <c r="E58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G58" s="1">
         <v>553</v>
-      </c>
-      <c r="G58" s="1">
-        <v>14537</v>
       </c>
       <c r="H58" s="1">
         <v>559</v>
@@ -7098,11 +7118,11 @@
       <c r="E59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G59" s="1">
         <v>553</v>
-      </c>
-      <c r="G59" s="1">
-        <v>14537</v>
       </c>
       <c r="H59" s="1">
         <v>559</v>
@@ -7201,11 +7221,11 @@
       <c r="E60" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="16">
+        <v>11250</v>
+      </c>
+      <c r="G60" s="1">
         <v>576</v>
-      </c>
-      <c r="G60" s="1">
-        <v>11250</v>
       </c>
       <c r="H60" s="1">
         <v>601</v>
@@ -7304,11 +7324,11 @@
       <c r="E61" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="16">
+        <v>7145</v>
+      </c>
+      <c r="G61" s="1">
         <v>602</v>
-      </c>
-      <c r="G61" s="1">
-        <v>7145</v>
       </c>
       <c r="H61" s="1">
         <v>610</v>
@@ -7407,13 +7427,13 @@
       <c r="E62" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F62" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="F62" s="17">
         <f>11104</f>
         <v>11104</v>
+      </c>
+      <c r="G62" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <f>0</f>
@@ -7513,11 +7533,11 @@
       <c r="E63" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="15">
+        <v>11250</v>
+      </c>
+      <c r="G63" s="1">
         <v>576</v>
-      </c>
-      <c r="G63" s="2">
-        <v>11250</v>
       </c>
       <c r="H63" s="1">
         <v>584</v>
@@ -7616,11 +7636,11 @@
       <c r="E64" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G64" s="1">
         <v>553</v>
-      </c>
-      <c r="G64" s="1">
-        <v>14537</v>
       </c>
       <c r="H64" s="1">
         <v>558</v>
@@ -7719,13 +7739,13 @@
       <c r="E65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F65" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
+      <c r="F65" s="17">
         <f>14537</f>
         <v>14537</v>
+      </c>
+      <c r="G65" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H65" s="3">
         <f>0</f>
@@ -7825,13 +7845,13 @@
       <c r="E66" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F66" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="F66" s="17">
         <f>13741</f>
         <v>13741</v>
+      </c>
+      <c r="G66" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <f>0</f>
@@ -7931,13 +7951,13 @@
       <c r="E67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F67" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
+      <c r="F67" s="17">
         <f>14537</f>
         <v>14537</v>
+      </c>
+      <c r="G67" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H67" s="3">
         <f>0</f>
@@ -8037,11 +8057,11 @@
       <c r="E68" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="16">
+        <v>11250</v>
+      </c>
+      <c r="G68" s="1">
         <v>576</v>
-      </c>
-      <c r="G68" s="1">
-        <v>11250</v>
       </c>
       <c r="H68" s="1">
         <v>583</v>
@@ -8140,11 +8160,11 @@
       <c r="E69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G69" s="1">
         <v>553</v>
-      </c>
-      <c r="G69" s="1">
-        <v>14537</v>
       </c>
       <c r="H69" s="1">
         <v>559</v>
@@ -8243,11 +8263,11 @@
       <c r="E70" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G70" s="1">
         <v>553</v>
-      </c>
-      <c r="G70" s="1">
-        <v>14537</v>
       </c>
       <c r="H70" s="1">
         <v>559</v>
@@ -8346,13 +8366,13 @@
       <c r="E71" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F71" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
+      <c r="F71" s="17">
         <f>14537</f>
         <v>14537</v>
+      </c>
+      <c r="G71" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H71" s="3">
         <f>0</f>
@@ -8452,13 +8472,13 @@
       <c r="E72" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="F72" s="17">
         <f>14537</f>
         <v>14537</v>
+      </c>
+      <c r="G72" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
         <f>0</f>
@@ -8558,11 +8578,11 @@
       <c r="E73" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="16">
+        <v>12164</v>
+      </c>
+      <c r="G73" s="1">
         <v>570</v>
-      </c>
-      <c r="G73" s="1">
-        <v>12164</v>
       </c>
       <c r="H73" s="1">
         <v>594</v>
@@ -8661,11 +8681,11 @@
       <c r="E74" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="16">
+        <v>8972</v>
+      </c>
+      <c r="G74" s="1">
         <v>591</v>
-      </c>
-      <c r="G74" s="1">
-        <v>8972</v>
       </c>
       <c r="H74" s="1">
         <v>602</v>
@@ -8764,11 +8784,11 @@
       <c r="E75" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G75" s="1">
         <v>553</v>
-      </c>
-      <c r="G75" s="1">
-        <v>14537</v>
       </c>
       <c r="H75" s="1">
         <v>567</v>
@@ -8867,11 +8887,11 @@
       <c r="E76" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G76" s="1">
         <v>553</v>
-      </c>
-      <c r="G76" s="1">
-        <v>14537</v>
       </c>
       <c r="H76" s="2">
         <v>564</v>
@@ -8970,11 +8990,11 @@
       <c r="E77" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G77" s="1">
         <v>553</v>
-      </c>
-      <c r="G77" s="1">
-        <v>14537</v>
       </c>
       <c r="H77" s="1">
         <v>562</v>
@@ -9073,11 +9093,11 @@
       <c r="E78" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="16">
+        <v>7145</v>
+      </c>
+      <c r="G78" s="1">
         <v>602</v>
-      </c>
-      <c r="G78" s="1">
-        <v>7145</v>
       </c>
       <c r="H78" s="1">
         <v>606</v>
@@ -9173,11 +9193,11 @@
       <c r="E79" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="16">
+        <v>10532</v>
+      </c>
+      <c r="G79" s="1">
         <v>581</v>
-      </c>
-      <c r="G79" s="1">
-        <v>10532</v>
       </c>
       <c r="H79" s="1">
         <v>586</v>
@@ -9273,11 +9293,11 @@
       <c r="E80" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="16">
+        <v>6308</v>
+      </c>
+      <c r="G80" s="1">
         <v>607</v>
-      </c>
-      <c r="G80" s="1">
-        <v>6308</v>
       </c>
       <c r="H80" s="1">
         <v>613</v>
@@ -9374,11 +9394,11 @@
       <c r="E81" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="16">
+        <v>1328</v>
+      </c>
+      <c r="G81" s="1">
         <v>638</v>
-      </c>
-      <c r="G81" s="1">
-        <v>1328</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -9472,11 +9492,11 @@
       <c r="E82" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="16">
+        <v>7801</v>
+      </c>
+      <c r="G82" s="1">
         <v>598</v>
-      </c>
-      <c r="G82" s="1">
-        <v>7801</v>
       </c>
       <c r="H82" s="1">
         <v>605</v>
@@ -9573,11 +9593,11 @@
       <c r="E83" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="16">
+        <v>2919</v>
+      </c>
+      <c r="G83" s="2">
         <v>626</v>
-      </c>
-      <c r="G83" s="1">
-        <v>2919</v>
       </c>
       <c r="H83" s="1">
         <v>629</v>
@@ -9673,13 +9693,13 @@
       <c r="E84" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F84" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
+      <c r="F84" s="17">
         <f>14537</f>
         <v>14537</v>
+      </c>
+      <c r="G84" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H84" s="3">
         <f>0</f>
@@ -9779,11 +9799,11 @@
       <c r="E85" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="16">
+        <v>3082</v>
+      </c>
+      <c r="G85" s="1">
         <v>625</v>
-      </c>
-      <c r="G85" s="1">
-        <v>3082</v>
       </c>
       <c r="H85" s="1">
         <v>629</v>
@@ -9881,11 +9901,11 @@
       <c r="E86" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="16">
+        <v>14537</v>
+      </c>
+      <c r="G86" s="1">
         <v>553</v>
-      </c>
-      <c r="G86" s="1">
-        <v>14537</v>
       </c>
       <c r="H86" s="1">
         <v>572</v>
@@ -9983,11 +10003,11 @@
       <c r="E87" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="16">
+        <v>12892</v>
+      </c>
+      <c r="G87" s="1">
         <v>565</v>
-      </c>
-      <c r="G87" s="1">
-        <v>12892</v>
       </c>
       <c r="H87" s="1">
         <v>573</v>
@@ -10083,13 +10103,13 @@
       <c r="E88" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F88" s="3">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="3">
+      <c r="F88" s="17">
         <f>14537</f>
         <v>14537</v>
+      </c>
+      <c r="G88" s="3">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H88" s="3">
         <f>0</f>
@@ -10187,11 +10207,11 @@
       <c r="E89" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="16">
+        <v>13323</v>
+      </c>
+      <c r="G89" s="1">
         <v>562</v>
-      </c>
-      <c r="G89" s="1">
-        <v>13323</v>
       </c>
       <c r="H89" s="1">
         <v>575</v>
@@ -10290,11 +10310,11 @@
       <c r="E90" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="16">
+        <v>14415</v>
+      </c>
+      <c r="G90" s="1">
         <v>554</v>
-      </c>
-      <c r="G90" s="1">
-        <v>14415</v>
       </c>
       <c r="H90" s="2">
         <v>562</v>
@@ -10393,11 +10413,11 @@
       <c r="E91" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="16">
+        <v>5799</v>
+      </c>
+      <c r="G91" s="1">
         <v>610</v>
-      </c>
-      <c r="G91" s="1">
-        <v>5799</v>
       </c>
       <c r="H91" s="1">
         <v>615</v>
@@ -10496,11 +10516,11 @@
       <c r="E92" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="16">
+        <v>4160</v>
+      </c>
+      <c r="G92" s="1">
         <v>619</v>
-      </c>
-      <c r="G92" s="1">
-        <v>4160</v>
       </c>
       <c r="H92" s="1">
         <v>627</v>
@@ -10582,6 +10602,1188 @@
         <f>0</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F96" s="19"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F98" s="19"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F99" s="19"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F100" s="19"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F101" s="19"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F102" s="19"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F103" s="19"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F104" s="19"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F105" s="19"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F106" s="19"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F107" s="19"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F108" s="19"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F109" s="19"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F110" s="19"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F111" s="19"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F112" s="19"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F113" s="19"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F114" s="19"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F115" s="19"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F116" s="19"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F117" s="19"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F118" s="19"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F119" s="19"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F120" s="19"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F121" s="19"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F122" s="19"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F123" s="19"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F124" s="19"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F125" s="19"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F126" s="19"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F127" s="19"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F128" s="19"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F129" s="19"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F130" s="19"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F131" s="19"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F132" s="19"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F133" s="19"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F134" s="19"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F135" s="19"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F136" s="19"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F137" s="19"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F138" s="19"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F139" s="19"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F140" s="19"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F141" s="19"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F142" s="19"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F143" s="19"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F144" s="19"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F145" s="19"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F146" s="19"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F147" s="19"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F148" s="19"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F149" s="19"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F150" s="19"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F151" s="19"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F152" s="19"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F153" s="19"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F154" s="19"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F155" s="19"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F156" s="19"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F157" s="19"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F158" s="19"/>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F159" s="19"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F160" s="19"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F161" s="19"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F162" s="19"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F163" s="19"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F164" s="19"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F165" s="19"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F166" s="19"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F167" s="19"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F168" s="19"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F169" s="19"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F170" s="19"/>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F171" s="19"/>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F172" s="19"/>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F173" s="19"/>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F174" s="19"/>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F175" s="19"/>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F176" s="19"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F177" s="19"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F178" s="19"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F179" s="19"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F180" s="19"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F181" s="19"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F182" s="19"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F183" s="19"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F184" s="19"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F185" s="19"/>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F186" s="19"/>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F187" s="19"/>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F188" s="19"/>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F189" s="19"/>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F190" s="19"/>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F191" s="19"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F192" s="19"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F193" s="19"/>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F194" s="19"/>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F195" s="19"/>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F196" s="19"/>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F197" s="19"/>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F198" s="19"/>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F199" s="19"/>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F200" s="19"/>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F201" s="19"/>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F202" s="19"/>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F203" s="19"/>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F204" s="19"/>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F205" s="19"/>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F206" s="19"/>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F207" s="19"/>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F208" s="19"/>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F209" s="19"/>
+    </row>
+    <row r="210" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F210" s="19"/>
+    </row>
+    <row r="211" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F211" s="19"/>
+    </row>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F212" s="19"/>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F213" s="19"/>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F214" s="19"/>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F215" s="19"/>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F216" s="19"/>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F217" s="19"/>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F218" s="19"/>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F219" s="19"/>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F220" s="19"/>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F221" s="19"/>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F222" s="19"/>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F223" s="19"/>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F224" s="19"/>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F225" s="19"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F226" s="19"/>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F227" s="19"/>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F228" s="19"/>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F229" s="19"/>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F230" s="19"/>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F231" s="19"/>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F232" s="19"/>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F233" s="19"/>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F234" s="19"/>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F235" s="19"/>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F236" s="19"/>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F237" s="19"/>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F238" s="19"/>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F239" s="19"/>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F240" s="19"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F241" s="19"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F242" s="19"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F243" s="19"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F244" s="19"/>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F245" s="19"/>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F246" s="19"/>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F247" s="19"/>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F248" s="19"/>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F249" s="19"/>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F250" s="19"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F251" s="19"/>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F252" s="19"/>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F253" s="19"/>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F254" s="19"/>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F255" s="19"/>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F256" s="19"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F257" s="19"/>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F258" s="19"/>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F259" s="19"/>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F260" s="19"/>
+    </row>
+    <row r="261" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F261" s="19"/>
+    </row>
+    <row r="262" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F262" s="19"/>
+    </row>
+    <row r="263" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F263" s="19"/>
+    </row>
+    <row r="264" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F264" s="19"/>
+    </row>
+    <row r="265" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F265" s="19"/>
+    </row>
+    <row r="266" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F266" s="19"/>
+    </row>
+    <row r="267" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F267" s="19"/>
+    </row>
+    <row r="268" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F268" s="19"/>
+    </row>
+    <row r="269" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F269" s="19"/>
+    </row>
+    <row r="270" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F270" s="19"/>
+    </row>
+    <row r="271" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F271" s="19"/>
+    </row>
+    <row r="272" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F272" s="19"/>
+    </row>
+    <row r="273" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F273" s="19"/>
+    </row>
+    <row r="274" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F274" s="19"/>
+    </row>
+    <row r="275" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F275" s="19"/>
+    </row>
+    <row r="276" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F276" s="19"/>
+    </row>
+    <row r="277" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F277" s="19"/>
+    </row>
+    <row r="278" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F278" s="19"/>
+    </row>
+    <row r="279" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F279" s="19"/>
+    </row>
+    <row r="280" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F280" s="19"/>
+    </row>
+    <row r="281" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F281" s="19"/>
+    </row>
+    <row r="282" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F282" s="19"/>
+    </row>
+    <row r="283" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F283" s="19"/>
+    </row>
+    <row r="284" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F284" s="19"/>
+    </row>
+    <row r="285" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F285" s="19"/>
+    </row>
+    <row r="286" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F286" s="19"/>
+    </row>
+    <row r="287" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F287" s="19"/>
+    </row>
+    <row r="288" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F288" s="19"/>
+    </row>
+    <row r="289" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F289" s="19"/>
+    </row>
+    <row r="290" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F290" s="19"/>
+    </row>
+    <row r="291" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F291" s="19"/>
+    </row>
+    <row r="292" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F292" s="19"/>
+    </row>
+    <row r="293" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F293" s="19"/>
+    </row>
+    <row r="294" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F294" s="19"/>
+    </row>
+    <row r="295" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F295" s="19"/>
+    </row>
+    <row r="296" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F296" s="19"/>
+    </row>
+    <row r="297" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F297" s="19"/>
+    </row>
+    <row r="298" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F298" s="19"/>
+    </row>
+    <row r="299" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F299" s="19"/>
+    </row>
+    <row r="300" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F300" s="19"/>
+    </row>
+    <row r="301" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F301" s="19"/>
+    </row>
+    <row r="302" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F302" s="19"/>
+    </row>
+    <row r="303" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F303" s="19"/>
+    </row>
+    <row r="304" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F304" s="19"/>
+    </row>
+    <row r="305" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F305" s="19"/>
+    </row>
+    <row r="306" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F306" s="19"/>
+    </row>
+    <row r="307" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F307" s="19"/>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F308" s="19"/>
+    </row>
+    <row r="309" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F309" s="19"/>
+    </row>
+    <row r="310" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F310" s="19"/>
+    </row>
+    <row r="311" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F311" s="19"/>
+    </row>
+    <row r="312" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F312" s="19"/>
+    </row>
+    <row r="313" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F313" s="19"/>
+    </row>
+    <row r="314" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F314" s="19"/>
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F315" s="19"/>
+    </row>
+    <row r="316" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F316" s="19"/>
+    </row>
+    <row r="317" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F317" s="19"/>
+    </row>
+    <row r="318" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F318" s="19"/>
+    </row>
+    <row r="319" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F319" s="19"/>
+    </row>
+    <row r="320" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F320" s="19"/>
+    </row>
+    <row r="321" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F321" s="19"/>
+    </row>
+    <row r="322" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F322" s="19"/>
+    </row>
+    <row r="323" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F323" s="19"/>
+    </row>
+    <row r="324" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F324" s="19"/>
+    </row>
+    <row r="325" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F325" s="19"/>
+    </row>
+    <row r="326" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F326" s="19"/>
+    </row>
+    <row r="327" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F327" s="19"/>
+    </row>
+    <row r="328" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F328" s="19"/>
+    </row>
+    <row r="329" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F329" s="19"/>
+    </row>
+    <row r="330" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F330" s="19"/>
+    </row>
+    <row r="331" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F331" s="19"/>
+    </row>
+    <row r="332" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F332" s="19"/>
+    </row>
+    <row r="333" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F333" s="19"/>
+    </row>
+    <row r="334" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F334" s="19"/>
+    </row>
+    <row r="335" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F335" s="19"/>
+    </row>
+    <row r="336" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F336" s="19"/>
+    </row>
+    <row r="337" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F337" s="19"/>
+    </row>
+    <row r="338" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F338" s="19"/>
+    </row>
+    <row r="339" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F339" s="19"/>
+    </row>
+    <row r="340" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F340" s="19"/>
+    </row>
+    <row r="341" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F341" s="19"/>
+    </row>
+    <row r="342" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F342" s="19"/>
+    </row>
+    <row r="343" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F343" s="19"/>
+    </row>
+    <row r="344" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F344" s="19"/>
+    </row>
+    <row r="345" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F345" s="19"/>
+    </row>
+    <row r="346" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F346" s="19"/>
+    </row>
+    <row r="347" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F347" s="19"/>
+    </row>
+    <row r="348" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F348" s="19"/>
+    </row>
+    <row r="349" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F349" s="19"/>
+    </row>
+    <row r="350" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F350" s="19"/>
+    </row>
+    <row r="351" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F351" s="19"/>
+    </row>
+    <row r="352" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F352" s="19"/>
+    </row>
+    <row r="353" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F353" s="19"/>
+    </row>
+    <row r="354" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F354" s="19"/>
+    </row>
+    <row r="355" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F355" s="19"/>
+    </row>
+    <row r="356" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F356" s="19"/>
+    </row>
+    <row r="357" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F357" s="19"/>
+    </row>
+    <row r="358" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F358" s="19"/>
+    </row>
+    <row r="359" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F359" s="19"/>
+    </row>
+    <row r="360" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F360" s="19"/>
+    </row>
+    <row r="361" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F361" s="19"/>
+    </row>
+    <row r="362" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F362" s="19"/>
+    </row>
+    <row r="363" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F363" s="19"/>
+    </row>
+    <row r="364" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F364" s="19"/>
+    </row>
+    <row r="365" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F365" s="19"/>
+    </row>
+    <row r="366" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F366" s="19"/>
+    </row>
+    <row r="367" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F367" s="19"/>
+    </row>
+    <row r="368" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F368" s="19"/>
+    </row>
+    <row r="369" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F369" s="19"/>
+    </row>
+    <row r="370" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F370" s="19"/>
+    </row>
+    <row r="371" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F371" s="19"/>
+    </row>
+    <row r="372" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F372" s="19"/>
+    </row>
+    <row r="373" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F373" s="19"/>
+    </row>
+    <row r="374" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F374" s="19"/>
+    </row>
+    <row r="375" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F375" s="19"/>
+    </row>
+    <row r="376" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F376" s="19"/>
+    </row>
+    <row r="377" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F377" s="19"/>
+    </row>
+    <row r="378" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F378" s="19"/>
+    </row>
+    <row r="379" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F379" s="19"/>
+    </row>
+    <row r="380" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F380" s="19"/>
+    </row>
+    <row r="381" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F381" s="19"/>
+    </row>
+    <row r="382" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F382" s="19"/>
+    </row>
+    <row r="383" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F383" s="19"/>
+    </row>
+    <row r="384" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F384" s="19"/>
+    </row>
+    <row r="385" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F385" s="19"/>
+    </row>
+    <row r="386" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F386" s="19"/>
+    </row>
+    <row r="387" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F387" s="19"/>
+    </row>
+    <row r="388" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F388" s="19"/>
+    </row>
+    <row r="389" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F389" s="19"/>
+    </row>
+    <row r="390" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F390" s="19"/>
+    </row>
+    <row r="391" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F391" s="19"/>
+    </row>
+    <row r="392" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F392" s="19"/>
+    </row>
+    <row r="393" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F393" s="19"/>
+    </row>
+    <row r="394" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F394" s="19"/>
+    </row>
+    <row r="395" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F395" s="19"/>
+    </row>
+    <row r="396" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F396" s="19"/>
+    </row>
+    <row r="397" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F397" s="19"/>
+    </row>
+    <row r="398" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F398" s="19"/>
+    </row>
+    <row r="399" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F399" s="19"/>
+    </row>
+    <row r="400" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F400" s="19"/>
+    </row>
+    <row r="401" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F401" s="19"/>
+    </row>
+    <row r="402" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F402" s="19"/>
+    </row>
+    <row r="403" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F403" s="19"/>
+    </row>
+    <row r="404" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F404" s="19"/>
+    </row>
+    <row r="405" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F405" s="19"/>
+    </row>
+    <row r="406" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F406" s="19"/>
+    </row>
+    <row r="407" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F407" s="19"/>
+    </row>
+    <row r="408" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F408" s="19"/>
+    </row>
+    <row r="409" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F409" s="19"/>
+    </row>
+    <row r="410" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F410" s="19"/>
+    </row>
+    <row r="411" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F411" s="19"/>
+    </row>
+    <row r="412" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F412" s="19"/>
+    </row>
+    <row r="413" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F413" s="19"/>
+    </row>
+    <row r="414" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F414" s="19"/>
+    </row>
+    <row r="415" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F415" s="19"/>
+    </row>
+    <row r="416" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F416" s="19"/>
+    </row>
+    <row r="417" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F417" s="19"/>
+    </row>
+    <row r="418" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F418" s="19"/>
+    </row>
+    <row r="419" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F419" s="19"/>
+    </row>
+    <row r="420" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F420" s="19"/>
+    </row>
+    <row r="421" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F421" s="19"/>
+    </row>
+    <row r="422" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F422" s="19"/>
+    </row>
+    <row r="423" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F423" s="19"/>
+    </row>
+    <row r="424" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F424" s="19"/>
+    </row>
+    <row r="425" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F425" s="19"/>
+    </row>
+    <row r="426" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F426" s="19"/>
+    </row>
+    <row r="427" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F427" s="19"/>
+    </row>
+    <row r="428" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F428" s="19"/>
+    </row>
+    <row r="429" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F429" s="19"/>
+    </row>
+    <row r="430" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F430" s="19"/>
+    </row>
+    <row r="431" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F431" s="19"/>
+    </row>
+    <row r="432" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F432" s="19"/>
+    </row>
+    <row r="433" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F433" s="19"/>
+    </row>
+    <row r="434" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F434" s="19"/>
+    </row>
+    <row r="435" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F435" s="19"/>
+    </row>
+    <row r="436" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F436" s="19"/>
+    </row>
+    <row r="437" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F437" s="19"/>
+    </row>
+    <row r="438" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F438" s="19"/>
+    </row>
+    <row r="439" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F439" s="19"/>
+    </row>
+    <row r="440" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F440" s="19"/>
+    </row>
+    <row r="441" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F441" s="19"/>
+    </row>
+    <row r="442" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F442" s="19"/>
+    </row>
+    <row r="443" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F443" s="19"/>
+    </row>
+    <row r="444" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F444" s="19"/>
+    </row>
+    <row r="445" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F445" s="19"/>
+    </row>
+    <row r="446" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F446" s="19"/>
+    </row>
+    <row r="447" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F447" s="19"/>
+    </row>
+    <row r="448" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F448" s="19"/>
+    </row>
+    <row r="449" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F449" s="19"/>
+    </row>
+    <row r="450" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F450" s="19"/>
+    </row>
+    <row r="451" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F451" s="19"/>
+    </row>
+    <row r="452" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F452" s="19"/>
+    </row>
+    <row r="453" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F453" s="19"/>
+    </row>
+    <row r="454" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F454" s="19"/>
+    </row>
+    <row r="455" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F455" s="19"/>
+    </row>
+    <row r="456" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F456" s="19"/>
+    </row>
+    <row r="457" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F457" s="19"/>
+    </row>
+    <row r="458" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F458" s="19"/>
+    </row>
+    <row r="459" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F459" s="19"/>
+    </row>
+    <row r="460" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F460" s="19"/>
+    </row>
+    <row r="461" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F461" s="19"/>
+    </row>
+    <row r="462" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F462" s="19"/>
+    </row>
+    <row r="463" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F463" s="19"/>
+    </row>
+    <row r="464" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F464" s="19"/>
+    </row>
+    <row r="465" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F465" s="19"/>
+    </row>
+    <row r="466" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F466" s="19"/>
+    </row>
+    <row r="467" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F467" s="19"/>
+    </row>
+    <row r="468" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F468" s="19"/>
+    </row>
+    <row r="469" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F469" s="19"/>
+    </row>
+    <row r="470" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F470" s="19"/>
+    </row>
+    <row r="471" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F471" s="19"/>
+    </row>
+    <row r="472" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F472" s="19"/>
+    </row>
+    <row r="473" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F473" s="19"/>
+    </row>
+    <row r="474" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F474" s="19"/>
+    </row>
+    <row r="475" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F475" s="19"/>
+    </row>
+    <row r="476" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F476" s="19"/>
+    </row>
+    <row r="477" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F477" s="19"/>
+    </row>
+    <row r="478" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F478" s="19"/>
+    </row>
+    <row r="479" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F479" s="19"/>
+    </row>
+    <row r="480" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F480" s="19"/>
+    </row>
+    <row r="481" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F481" s="19"/>
+    </row>
+    <row r="482" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F482" s="19"/>
+    </row>
+    <row r="483" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F483" s="19"/>
+    </row>
+    <row r="484" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F484" s="19"/>
+    </row>
+    <row r="485" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F485" s="19"/>
+    </row>
+    <row r="486" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F486" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -10590,7 +11792,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:A1048576" numberStoredAsText="1"/>
-    <ignoredError sqref="N26:N27 S9 S15 N49:N50 S81 S40 N7 N88 N84 G24:G25 G7 G27 G41 G49 G62 G65:G67 G71:G72 G84 G88 N41 N62" formula="1"/>
+    <ignoredError sqref="N26:N27 S9 S15 N49:N50 S81 S40 N7 N88 N84 N41 N62" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -10605,7 +11807,7 @@
           <x14:formula1>
             <xm:f>set!$C$1:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E1:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F56642B6-BD35-448D-8794-7C9451968D99}">
           <x14:formula1>

--- a/data/schools.2023.xlsx
+++ b/data/schools.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69754A66-58B5-4D33-B8A4-1D5C2BF60905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F273E-72C3-4F5F-8148-5661364D7F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-1065" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,12 +825,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -900,22 +894,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,8 +1187,8 @@
   <dimension ref="A1:AB486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1197,7 @@
     <col min="2" max="2" width="18.875" style="9" customWidth="1"/>
     <col min="3" max="4" width="9.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="18"/>
+    <col min="6" max="6" width="9" style="15"/>
     <col min="7" max="7" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="5" customWidth="1"/>
@@ -1228,7 +1215,7 @@
     <col min="21" max="21" width="8.25" style="5" customWidth="1"/>
     <col min="22" max="22" width="6.625" style="5" customWidth="1"/>
     <col min="23" max="23" width="7.625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="6.5" style="13" customWidth="1"/>
+    <col min="24" max="24" width="6.5" style="16" customWidth="1"/>
     <col min="25" max="25" width="9" style="5"/>
     <col min="26" max="26" width="8.75" style="5" customWidth="1"/>
     <col min="27" max="27" width="8" style="5" customWidth="1"/>
@@ -1252,7 +1239,7 @@
       <c r="E1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -1306,7 +1293,7 @@
       <c r="W1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>205</v>
       </c>
       <c r="Y1" s="10" t="s">
@@ -1338,7 +1325,7 @@
       <c r="E2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="12">
         <v>3254</v>
       </c>
       <c r="G2" s="1">
@@ -1403,7 +1390,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="7">
         <v>56</v>
       </c>
       <c r="Y2" s="7">
@@ -1438,7 +1425,7 @@
       <c r="E3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <v>6308</v>
       </c>
       <c r="G3" s="1">
@@ -1504,7 +1491,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="7">
         <v>50</v>
       </c>
       <c r="Y3" s="7">
@@ -1539,7 +1526,7 @@
       <c r="E4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>11408</v>
       </c>
       <c r="G4" s="1">
@@ -1605,7 +1592,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="7">
         <v>48</v>
       </c>
       <c r="Y4" s="7">
@@ -1640,7 +1627,7 @@
       <c r="E5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="13">
         <v>8650</v>
       </c>
       <c r="G5" s="1">
@@ -1706,7 +1693,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="7">
         <v>60</v>
       </c>
       <c r="Y5" s="7">
@@ -1741,7 +1728,7 @@
       <c r="E6" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <v>12164</v>
       </c>
       <c r="G6" s="1">
@@ -1807,7 +1794,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="7">
         <v>162</v>
       </c>
       <c r="Y6" s="7">
@@ -1842,7 +1829,7 @@
       <c r="E7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <f>5616</f>
         <v>5616</v>
       </c>
@@ -1911,7 +1898,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="7">
         <v>15</v>
       </c>
       <c r="Y7" s="7">
@@ -1946,7 +1933,7 @@
       <c r="E8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>7642</v>
       </c>
       <c r="G8" s="1">
@@ -2011,7 +1998,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -2046,7 +2033,7 @@
       <c r="E9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>4553</v>
       </c>
       <c r="G9" s="1">
@@ -2111,7 +2098,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="7">
         <v>36</v>
       </c>
       <c r="Y9" s="7">
@@ -2146,7 +2133,7 @@
       <c r="E10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="13">
         <v>1454</v>
       </c>
       <c r="G10" s="1">
@@ -2211,7 +2198,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="7">
         <v>60</v>
       </c>
       <c r="Y10" s="7">
@@ -2246,7 +2233,7 @@
       <c r="E11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="13">
         <v>882</v>
       </c>
       <c r="G11" s="1">
@@ -2312,7 +2299,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X11" s="12">
+      <c r="X11" s="7">
         <v>46</v>
       </c>
       <c r="Y11" s="7">
@@ -2347,7 +2334,7 @@
       <c r="E12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="13">
         <v>14537</v>
       </c>
       <c r="G12" s="1">
@@ -2413,7 +2400,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X12" s="12">
+      <c r="X12" s="7">
         <v>54</v>
       </c>
       <c r="Y12" s="7">
@@ -2448,7 +2435,7 @@
       <c r="E13" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>13323</v>
       </c>
       <c r="G13" s="1">
@@ -2514,7 +2501,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="7">
         <v>36</v>
       </c>
       <c r="Y13" s="7">
@@ -2549,7 +2536,7 @@
       <c r="E14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <v>8319</v>
       </c>
       <c r="G14" s="1">
@@ -2615,7 +2602,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X14" s="7">
         <v>50</v>
       </c>
       <c r="Y14" s="7">
@@ -2650,7 +2637,7 @@
       <c r="E15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="13">
         <v>2022</v>
       </c>
       <c r="G15" s="1">
@@ -2714,7 +2701,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="7">
         <v>78</v>
       </c>
       <c r="Y15" s="7">
@@ -2749,7 +2736,7 @@
       <c r="E16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="13">
         <v>12324</v>
       </c>
       <c r="G16" s="1">
@@ -2815,7 +2802,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X16" s="12">
+      <c r="X16" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -2849,7 +2836,7 @@
       <c r="E17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="13">
         <v>8498</v>
       </c>
       <c r="G17" s="1">
@@ -2915,7 +2902,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X17" s="12">
+      <c r="X17" s="7">
         <v>36</v>
       </c>
       <c r="Y17" s="7">
@@ -2950,7 +2937,7 @@
       <c r="E18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="12">
         <v>6153</v>
       </c>
       <c r="G18" s="1">
@@ -3016,7 +3003,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X18" s="12">
+      <c r="X18" s="7">
         <v>40</v>
       </c>
       <c r="Y18" s="7">
@@ -3051,7 +3038,7 @@
       <c r="E19" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="13">
         <v>6153</v>
       </c>
       <c r="G19" s="1">
@@ -3116,7 +3103,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X19" s="12">
+      <c r="X19" s="7">
         <v>48</v>
       </c>
       <c r="Y19" s="7">
@@ -3151,7 +3138,7 @@
       <c r="E20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="13">
         <v>9605</v>
       </c>
       <c r="G20" s="1">
@@ -3217,7 +3204,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X20" s="12">
+      <c r="X20" s="7">
         <v>18</v>
       </c>
       <c r="Y20" s="7">
@@ -3252,7 +3239,7 @@
       <c r="E21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="13">
         <v>9139</v>
       </c>
       <c r="G21" s="1">
@@ -3318,7 +3305,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3354,7 +3341,7 @@
       <c r="E22" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="13">
         <v>9930</v>
       </c>
       <c r="G22" s="1">
@@ -3419,7 +3406,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X22" s="12">
+      <c r="X22" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3455,7 +3442,7 @@
       <c r="E23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <v>4357</v>
       </c>
       <c r="G23" s="1">
@@ -3521,7 +3508,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X23" s="12">
+      <c r="X23" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3557,7 +3544,7 @@
       <c r="E24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="14">
         <f>10380</f>
         <v>10380</v>
       </c>
@@ -3625,7 +3612,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X24" s="12">
+      <c r="X24" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3661,7 +3648,7 @@
       <c r="E25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="14">
         <f>14537</f>
         <v>14537</v>
       </c>
@@ -3729,7 +3716,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X25" s="12">
+      <c r="X25" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3765,7 +3752,7 @@
       <c r="E26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="13">
         <v>3799</v>
       </c>
       <c r="G26" s="1">
@@ -3829,7 +3816,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X26" s="12">
+      <c r="X26" s="7">
         <v>19</v>
       </c>
       <c r="Y26" s="7">
@@ -3864,7 +3851,7 @@
       <c r="E27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="14">
         <f>14537</f>
         <v>14537</v>
       </c>
@@ -3933,7 +3920,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X27" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -3970,7 +3957,7 @@
       <c r="E28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="13">
         <v>430</v>
       </c>
       <c r="G28" s="1">
@@ -4034,7 +4021,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X28" s="7">
         <v>48</v>
       </c>
       <c r="Y28" s="7">
@@ -4069,7 +4056,7 @@
       <c r="E29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="13">
         <v>4728</v>
       </c>
       <c r="G29" s="1">
@@ -4133,7 +4120,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29" s="7">
         <v>60</v>
       </c>
       <c r="Y29" s="7">
@@ -4168,7 +4155,7 @@
       <c r="E30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="13">
         <v>9930</v>
       </c>
       <c r="G30" s="1">
@@ -4234,7 +4221,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X30" s="7">
         <v>42</v>
       </c>
       <c r="Y30" s="7">
@@ -4269,7 +4256,7 @@
       <c r="E31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="13">
         <v>11866</v>
       </c>
       <c r="G31" s="1">
@@ -4334,7 +4321,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X31" s="7">
         <v>96</v>
       </c>
       <c r="Y31" s="7">
@@ -4369,7 +4356,7 @@
       <c r="E32" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="12">
         <v>8972</v>
       </c>
       <c r="G32" s="1">
@@ -4434,7 +4421,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4470,7 +4457,7 @@
       <c r="E33" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="13">
         <v>6468</v>
       </c>
       <c r="G33" s="1">
@@ -4535,7 +4522,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4571,7 +4558,7 @@
       <c r="E34" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="13">
         <v>5434</v>
       </c>
       <c r="G34" s="1">
@@ -4636,7 +4623,7 @@
       <c r="W34" s="7">
         <v>20</v>
       </c>
-      <c r="X34" s="12">
+      <c r="X34" s="7">
         <v>60</v>
       </c>
       <c r="Y34" s="7">
@@ -4671,7 +4658,7 @@
       <c r="E35" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>8972</v>
       </c>
       <c r="G35" s="1">
@@ -4737,7 +4724,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35" s="7">
         <v>54</v>
       </c>
       <c r="Y35" s="7">
@@ -4772,7 +4759,7 @@
       <c r="E36" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="13">
         <v>10959</v>
       </c>
       <c r="G36" s="1">
@@ -4838,7 +4825,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X36" s="12">
+      <c r="X36" s="7">
         <v>39</v>
       </c>
       <c r="Y36" s="7">
@@ -4873,7 +4860,7 @@
       <c r="E37" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="13">
         <v>13025</v>
       </c>
       <c r="G37" s="1">
@@ -4939,7 +4926,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X37" s="12">
+      <c r="X37" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -4975,7 +4962,7 @@
       <c r="E38" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="13">
         <v>7145</v>
       </c>
       <c r="G38" s="1">
@@ -5041,7 +5028,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X38" s="12">
+      <c r="X38" s="7">
         <v>48</v>
       </c>
       <c r="Y38" s="7">
@@ -5076,7 +5063,7 @@
       <c r="E39" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="13">
         <v>12892</v>
       </c>
       <c r="G39" s="1">
@@ -5142,7 +5129,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X39" s="12">
+      <c r="X39" s="7">
         <v>12</v>
       </c>
       <c r="Y39" s="7">
@@ -5177,7 +5164,7 @@
       <c r="E40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="13">
         <v>2456</v>
       </c>
       <c r="G40" s="1">
@@ -5241,7 +5228,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X40" s="12">
+      <c r="X40" s="7">
         <v>56</v>
       </c>
       <c r="Y40" s="7">
@@ -5276,7 +5263,7 @@
       <c r="E41" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="14">
         <f>10380</f>
         <v>10380</v>
       </c>
@@ -5345,7 +5332,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X41" s="12">
+      <c r="X41" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5382,7 +5369,7 @@
       <c r="E42" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="13">
         <v>4160</v>
       </c>
       <c r="G42" s="1">
@@ -5448,7 +5435,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X42" s="12">
+      <c r="X42" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5484,7 +5471,7 @@
       <c r="E43" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="13">
         <v>11104</v>
       </c>
       <c r="G43" s="1">
@@ -5550,7 +5537,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X43" s="12">
+      <c r="X43" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5587,7 +5574,7 @@
       <c r="E44" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="13">
         <v>13025</v>
       </c>
       <c r="G44" s="1">
@@ -5653,7 +5640,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X44" s="12">
+      <c r="X44" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5690,7 +5677,7 @@
       <c r="E45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="13">
         <v>14537</v>
       </c>
       <c r="G45" s="1">
@@ -5756,7 +5743,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X45" s="12">
+      <c r="X45" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5793,7 +5780,7 @@
       <c r="E46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="13">
         <v>13159</v>
       </c>
       <c r="G46" s="1">
@@ -5859,7 +5846,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X46" s="12">
+      <c r="X46" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5896,7 +5883,7 @@
       <c r="E47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="13">
         <v>14297</v>
       </c>
       <c r="G47" s="1">
@@ -5962,7 +5949,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X47" s="12">
+      <c r="X47" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -5999,7 +5986,7 @@
       <c r="E48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="12">
         <v>14537</v>
       </c>
       <c r="G48" s="2">
@@ -6065,7 +6052,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X48" s="12">
+      <c r="X48" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6102,7 +6089,7 @@
       <c r="E49" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="14">
         <f>14537</f>
         <v>14537</v>
       </c>
@@ -6171,7 +6158,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X49" s="12">
+      <c r="X49" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6208,7 +6195,7 @@
       <c r="E50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="13">
         <v>14537</v>
       </c>
       <c r="G50" s="1">
@@ -6274,7 +6261,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X50" s="12">
+      <c r="X50" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6311,7 +6298,7 @@
       <c r="E51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="13">
         <v>14537</v>
       </c>
       <c r="G51" s="1">
@@ -6376,7 +6363,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X51" s="12">
+      <c r="X51" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6413,7 +6400,7 @@
       <c r="E52" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="13">
         <v>14537</v>
       </c>
       <c r="G52" s="1">
@@ -6479,7 +6466,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X52" s="12">
+      <c r="X52" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6516,7 +6503,7 @@
       <c r="E53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="13">
         <v>14537</v>
       </c>
       <c r="G53" s="1">
@@ -6582,7 +6569,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X53" s="12">
+      <c r="X53" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6619,7 +6606,7 @@
       <c r="E54" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="13">
         <v>14537</v>
       </c>
       <c r="G54" s="1">
@@ -6685,7 +6672,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X54" s="12">
+      <c r="X54" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6722,7 +6709,7 @@
       <c r="E55" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="13">
         <v>14537</v>
       </c>
       <c r="G55" s="1">
@@ -6788,7 +6775,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X55" s="12">
+      <c r="X55" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -6825,7 +6812,7 @@
       <c r="E56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="13">
         <v>0</v>
       </c>
       <c r="G56" s="1">
@@ -6880,7 +6867,7 @@
       <c r="W56" s="7">
         <v>0</v>
       </c>
-      <c r="X56" s="12">
+      <c r="X56" s="7">
         <v>0</v>
       </c>
       <c r="Y56" s="7">
@@ -6912,7 +6899,7 @@
       <c r="E57" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="13">
         <v>14537</v>
       </c>
       <c r="G57" s="1">
@@ -6978,7 +6965,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X57" s="12">
+      <c r="X57" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7015,7 +7002,7 @@
       <c r="E58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="13">
         <v>14537</v>
       </c>
       <c r="G58" s="1">
@@ -7081,7 +7068,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X58" s="12">
+      <c r="X58" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7118,7 +7105,7 @@
       <c r="E59" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="13">
         <v>14537</v>
       </c>
       <c r="G59" s="1">
@@ -7184,7 +7171,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X59" s="12">
+      <c r="X59" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7221,7 +7208,7 @@
       <c r="E60" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="13">
         <v>11250</v>
       </c>
       <c r="G60" s="1">
@@ -7287,7 +7274,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X60" s="12">
+      <c r="X60" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7324,7 +7311,7 @@
       <c r="E61" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="13">
         <v>7145</v>
       </c>
       <c r="G61" s="1">
@@ -7390,7 +7377,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X61" s="12">
+      <c r="X61" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7427,7 +7414,7 @@
       <c r="E62" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="14">
         <f>11104</f>
         <v>11104</v>
       </c>
@@ -7496,7 +7483,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X62" s="12">
+      <c r="X62" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7533,7 +7520,7 @@
       <c r="E63" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="12">
         <v>11250</v>
       </c>
       <c r="G63" s="1">
@@ -7599,7 +7586,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X63" s="12">
+      <c r="X63" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7636,7 +7623,7 @@
       <c r="E64" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="13">
         <v>14537</v>
       </c>
       <c r="G64" s="1">
@@ -7702,7 +7689,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X64" s="12">
+      <c r="X64" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7739,7 +7726,7 @@
       <c r="E65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="14">
         <f>14537</f>
         <v>14537</v>
       </c>
@@ -7808,7 +7795,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X65" s="12">
+      <c r="X65" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7845,7 +7832,7 @@
       <c r="E66" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="14">
         <f>13741</f>
         <v>13741</v>
       </c>
@@ -7914,7 +7901,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X66" s="12">
+      <c r="X66" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -7951,7 +7938,7 @@
       <c r="E67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="14">
         <f>14537</f>
         <v>14537</v>
       </c>
@@ -8020,7 +8007,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X67" s="12">
+      <c r="X67" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8057,7 +8044,7 @@
       <c r="E68" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="13">
         <v>11250</v>
       </c>
       <c r="G68" s="1">
@@ -8123,7 +8110,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X68" s="12">
+      <c r="X68" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8160,7 +8147,7 @@
       <c r="E69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="13">
         <v>14537</v>
       </c>
       <c r="G69" s="1">
@@ -8226,7 +8213,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X69" s="12">
+      <c r="X69" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8263,7 +8250,7 @@
       <c r="E70" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="13">
         <v>14537</v>
       </c>
       <c r="G70" s="1">
@@ -8329,7 +8316,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X70" s="12">
+      <c r="X70" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8366,7 +8353,7 @@
       <c r="E71" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="14">
         <f>14537</f>
         <v>14537</v>
       </c>
@@ -8435,7 +8422,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X71" s="12">
+      <c r="X71" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8472,7 +8459,7 @@
       <c r="E72" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="14">
         <f>14537</f>
         <v>14537</v>
       </c>
@@ -8541,7 +8528,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X72" s="12">
+      <c r="X72" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8578,7 +8565,7 @@
       <c r="E73" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="13">
         <v>12164</v>
       </c>
       <c r="G73" s="1">
@@ -8644,7 +8631,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X73" s="12">
+      <c r="X73" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8681,7 +8668,7 @@
       <c r="E74" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="13">
         <v>8972</v>
       </c>
       <c r="G74" s="1">
@@ -8747,7 +8734,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X74" s="12">
+      <c r="X74" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8784,7 +8771,7 @@
       <c r="E75" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="13">
         <v>14537</v>
       </c>
       <c r="G75" s="1">
@@ -8850,7 +8837,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X75" s="12">
+      <c r="X75" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8887,7 +8874,7 @@
       <c r="E76" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="13">
         <v>14537</v>
       </c>
       <c r="G76" s="1">
@@ -8953,7 +8940,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X76" s="12">
+      <c r="X76" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -8990,7 +8977,7 @@
       <c r="E77" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="13">
         <v>14537</v>
       </c>
       <c r="G77" s="1">
@@ -9056,7 +9043,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X77" s="12">
+      <c r="X77" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -9093,7 +9080,7 @@
       <c r="E78" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="13">
         <v>7145</v>
       </c>
       <c r="G78" s="1">
@@ -9158,7 +9145,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X78" s="12">
+      <c r="X78" s="7">
         <v>42</v>
       </c>
       <c r="Y78" s="7">
@@ -9193,7 +9180,7 @@
       <c r="E79" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="13">
         <v>10532</v>
       </c>
       <c r="G79" s="1">
@@ -9258,7 +9245,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X79" s="12">
+      <c r="X79" s="7">
         <v>36</v>
       </c>
       <c r="Y79" s="7">
@@ -9293,7 +9280,7 @@
       <c r="E80" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="13">
         <v>6308</v>
       </c>
       <c r="G80" s="1">
@@ -9358,7 +9345,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X80" s="12">
+      <c r="X80" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -9394,7 +9381,7 @@
       <c r="E81" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="13">
         <v>1328</v>
       </c>
       <c r="G81" s="1">
@@ -9457,7 +9444,7 @@
       <c r="W81" s="7">
         <v>20</v>
       </c>
-      <c r="X81" s="12">
+      <c r="X81" s="7">
         <v>35</v>
       </c>
       <c r="Y81" s="7">
@@ -9492,7 +9479,7 @@
       <c r="E82" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="13">
         <v>7801</v>
       </c>
       <c r="G82" s="1">
@@ -9558,7 +9545,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X82" s="12">
+      <c r="X82" s="7">
         <v>60</v>
       </c>
       <c r="Y82" s="7">
@@ -9593,7 +9580,7 @@
       <c r="E83" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F83" s="13">
         <v>2919</v>
       </c>
       <c r="G83" s="2">
@@ -9658,7 +9645,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X83" s="12">
+      <c r="X83" s="7">
         <v>36</v>
       </c>
       <c r="Y83" s="7">
@@ -9693,7 +9680,7 @@
       <c r="E84" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="14">
         <f>14537</f>
         <v>14537</v>
       </c>
@@ -9762,7 +9749,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X84" s="12">
+      <c r="X84" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -9799,7 +9786,7 @@
       <c r="E85" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="13">
         <v>3082</v>
       </c>
       <c r="G85" s="1">
@@ -9865,7 +9852,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X85" s="12">
+      <c r="X85" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -9901,7 +9888,7 @@
       <c r="E86" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="13">
         <v>14537</v>
       </c>
       <c r="G86" s="1">
@@ -9967,7 +9954,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X86" s="12">
+      <c r="X86" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10003,7 +9990,7 @@
       <c r="E87" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="13">
         <v>12892</v>
       </c>
       <c r="G87" s="1">
@@ -10068,7 +10055,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X87" s="12">
+      <c r="X87" s="7">
         <v>108</v>
       </c>
       <c r="Y87" s="7">
@@ -10103,7 +10090,7 @@
       <c r="E88" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="14">
         <f>14537</f>
         <v>14537</v>
       </c>
@@ -10171,7 +10158,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X88" s="12">
+      <c r="X88" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10207,7 +10194,7 @@
       <c r="E89" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F89" s="13">
         <v>13323</v>
       </c>
       <c r="G89" s="1">
@@ -10273,7 +10260,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X89" s="12">
+      <c r="X89" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10310,7 +10297,7 @@
       <c r="E90" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F90" s="13">
         <v>14415</v>
       </c>
       <c r="G90" s="1">
@@ -10376,7 +10363,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X90" s="12">
+      <c r="X90" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10413,7 +10400,7 @@
       <c r="E91" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F91" s="13">
         <v>5799</v>
       </c>
       <c r="G91" s="1">
@@ -10479,7 +10466,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X91" s="12">
+      <c r="X91" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10516,7 +10503,7 @@
       <c r="E92" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="13">
         <v>4160</v>
       </c>
       <c r="G92" s="1">
@@ -10582,7 +10569,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="X92" s="12">
+      <c r="X92" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10604,1186 +10591,1186 @@
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F93" s="19"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F94" s="19"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F95" s="19"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F96" s="19"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F97" s="19"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F98" s="19"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F99" s="19"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F100" s="19"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F101" s="19"/>
+      <c r="F101" s="5"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F102" s="19"/>
+      <c r="F102" s="5"/>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F103" s="19"/>
+      <c r="F103" s="5"/>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F104" s="19"/>
+      <c r="F104" s="5"/>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F105" s="19"/>
+      <c r="F105" s="5"/>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F106" s="19"/>
+      <c r="F106" s="5"/>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F107" s="19"/>
+      <c r="F107" s="5"/>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F108" s="19"/>
+      <c r="F108" s="5"/>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F109" s="19"/>
+      <c r="F109" s="5"/>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F110" s="19"/>
+      <c r="F110" s="5"/>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F111" s="19"/>
+      <c r="F111" s="5"/>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F112" s="19"/>
+      <c r="F112" s="5"/>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F113" s="19"/>
+      <c r="F113" s="5"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F114" s="19"/>
+      <c r="F114" s="5"/>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F115" s="19"/>
+      <c r="F115" s="5"/>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F116" s="19"/>
+      <c r="F116" s="5"/>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F117" s="19"/>
+      <c r="F117" s="5"/>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F118" s="19"/>
+      <c r="F118" s="5"/>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F119" s="19"/>
+      <c r="F119" s="5"/>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F120" s="19"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F121" s="19"/>
+      <c r="F121" s="5"/>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F122" s="19"/>
+      <c r="F122" s="5"/>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F123" s="19"/>
+      <c r="F123" s="5"/>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F124" s="19"/>
+      <c r="F124" s="5"/>
     </row>
     <row r="125" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F125" s="19"/>
+      <c r="F125" s="5"/>
     </row>
     <row r="126" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F126" s="19"/>
+      <c r="F126" s="5"/>
     </row>
     <row r="127" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F127" s="19"/>
+      <c r="F127" s="5"/>
     </row>
     <row r="128" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F128" s="19"/>
+      <c r="F128" s="5"/>
     </row>
     <row r="129" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F129" s="19"/>
+      <c r="F129" s="5"/>
     </row>
     <row r="130" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F130" s="19"/>
+      <c r="F130" s="5"/>
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F131" s="19"/>
+      <c r="F131" s="5"/>
     </row>
     <row r="132" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F132" s="19"/>
+      <c r="F132" s="5"/>
     </row>
     <row r="133" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F133" s="19"/>
+      <c r="F133" s="5"/>
     </row>
     <row r="134" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F134" s="19"/>
+      <c r="F134" s="5"/>
     </row>
     <row r="135" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F135" s="19"/>
+      <c r="F135" s="5"/>
     </row>
     <row r="136" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F136" s="19"/>
+      <c r="F136" s="5"/>
     </row>
     <row r="137" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F137" s="19"/>
+      <c r="F137" s="5"/>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F138" s="19"/>
+      <c r="F138" s="5"/>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F139" s="19"/>
+      <c r="F139" s="5"/>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F140" s="19"/>
+      <c r="F140" s="5"/>
     </row>
     <row r="141" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F141" s="19"/>
+      <c r="F141" s="5"/>
     </row>
     <row r="142" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F142" s="19"/>
+      <c r="F142" s="5"/>
     </row>
     <row r="143" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F143" s="19"/>
+      <c r="F143" s="5"/>
     </row>
     <row r="144" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F144" s="19"/>
+      <c r="F144" s="5"/>
     </row>
     <row r="145" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F145" s="19"/>
+      <c r="F145" s="5"/>
     </row>
     <row r="146" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F146" s="19"/>
+      <c r="F146" s="5"/>
     </row>
     <row r="147" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F147" s="19"/>
+      <c r="F147" s="5"/>
     </row>
     <row r="148" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F148" s="19"/>
+      <c r="F148" s="5"/>
     </row>
     <row r="149" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F149" s="19"/>
+      <c r="F149" s="5"/>
     </row>
     <row r="150" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F150" s="19"/>
+      <c r="F150" s="5"/>
     </row>
     <row r="151" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F151" s="19"/>
+      <c r="F151" s="5"/>
     </row>
     <row r="152" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F152" s="19"/>
+      <c r="F152" s="5"/>
     </row>
     <row r="153" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F153" s="19"/>
+      <c r="F153" s="5"/>
     </row>
     <row r="154" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F154" s="19"/>
+      <c r="F154" s="5"/>
     </row>
     <row r="155" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F155" s="19"/>
+      <c r="F155" s="5"/>
     </row>
     <row r="156" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F156" s="19"/>
+      <c r="F156" s="5"/>
     </row>
     <row r="157" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F157" s="19"/>
+      <c r="F157" s="5"/>
     </row>
     <row r="158" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F158" s="19"/>
+      <c r="F158" s="5"/>
     </row>
     <row r="159" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F159" s="19"/>
+      <c r="F159" s="5"/>
     </row>
     <row r="160" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F160" s="19"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F161" s="19"/>
+      <c r="F161" s="5"/>
     </row>
     <row r="162" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F162" s="19"/>
+      <c r="F162" s="5"/>
     </row>
     <row r="163" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F163" s="19"/>
+      <c r="F163" s="5"/>
     </row>
     <row r="164" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F164" s="19"/>
+      <c r="F164" s="5"/>
     </row>
     <row r="165" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F165" s="19"/>
+      <c r="F165" s="5"/>
     </row>
     <row r="166" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F166" s="19"/>
+      <c r="F166" s="5"/>
     </row>
     <row r="167" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F167" s="19"/>
+      <c r="F167" s="5"/>
     </row>
     <row r="168" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F168" s="19"/>
+      <c r="F168" s="5"/>
     </row>
     <row r="169" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F169" s="19"/>
+      <c r="F169" s="5"/>
     </row>
     <row r="170" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F170" s="19"/>
+      <c r="F170" s="5"/>
     </row>
     <row r="171" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F171" s="19"/>
+      <c r="F171" s="5"/>
     </row>
     <row r="172" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F172" s="19"/>
+      <c r="F172" s="5"/>
     </row>
     <row r="173" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F173" s="19"/>
+      <c r="F173" s="5"/>
     </row>
     <row r="174" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F174" s="19"/>
+      <c r="F174" s="5"/>
     </row>
     <row r="175" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F175" s="19"/>
+      <c r="F175" s="5"/>
     </row>
     <row r="176" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F176" s="19"/>
+      <c r="F176" s="5"/>
     </row>
     <row r="177" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F177" s="19"/>
+      <c r="F177" s="5"/>
     </row>
     <row r="178" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F178" s="19"/>
+      <c r="F178" s="5"/>
     </row>
     <row r="179" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F179" s="19"/>
+      <c r="F179" s="5"/>
     </row>
     <row r="180" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F180" s="19"/>
+      <c r="F180" s="5"/>
     </row>
     <row r="181" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F181" s="19"/>
+      <c r="F181" s="5"/>
     </row>
     <row r="182" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F182" s="19"/>
+      <c r="F182" s="5"/>
     </row>
     <row r="183" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F183" s="19"/>
+      <c r="F183" s="5"/>
     </row>
     <row r="184" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F184" s="19"/>
+      <c r="F184" s="5"/>
     </row>
     <row r="185" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F185" s="19"/>
+      <c r="F185" s="5"/>
     </row>
     <row r="186" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F186" s="19"/>
+      <c r="F186" s="5"/>
     </row>
     <row r="187" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F187" s="19"/>
+      <c r="F187" s="5"/>
     </row>
     <row r="188" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F188" s="19"/>
+      <c r="F188" s="5"/>
     </row>
     <row r="189" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F189" s="19"/>
+      <c r="F189" s="5"/>
     </row>
     <row r="190" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F190" s="19"/>
+      <c r="F190" s="5"/>
     </row>
     <row r="191" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F191" s="19"/>
+      <c r="F191" s="5"/>
     </row>
     <row r="192" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F192" s="19"/>
+      <c r="F192" s="5"/>
     </row>
     <row r="193" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F193" s="19"/>
+      <c r="F193" s="5"/>
     </row>
     <row r="194" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F194" s="19"/>
+      <c r="F194" s="5"/>
     </row>
     <row r="195" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F195" s="19"/>
+      <c r="F195" s="5"/>
     </row>
     <row r="196" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F196" s="19"/>
+      <c r="F196" s="5"/>
     </row>
     <row r="197" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F197" s="19"/>
+      <c r="F197" s="5"/>
     </row>
     <row r="198" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F198" s="19"/>
+      <c r="F198" s="5"/>
     </row>
     <row r="199" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F199" s="19"/>
+      <c r="F199" s="5"/>
     </row>
     <row r="200" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F200" s="19"/>
+      <c r="F200" s="5"/>
     </row>
     <row r="201" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F201" s="19"/>
+      <c r="F201" s="5"/>
     </row>
     <row r="202" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F202" s="19"/>
+      <c r="F202" s="5"/>
     </row>
     <row r="203" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F203" s="19"/>
+      <c r="F203" s="5"/>
     </row>
     <row r="204" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F204" s="19"/>
+      <c r="F204" s="5"/>
     </row>
     <row r="205" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F205" s="19"/>
+      <c r="F205" s="5"/>
     </row>
     <row r="206" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F206" s="19"/>
+      <c r="F206" s="5"/>
     </row>
     <row r="207" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F207" s="19"/>
+      <c r="F207" s="5"/>
     </row>
     <row r="208" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F208" s="19"/>
+      <c r="F208" s="5"/>
     </row>
     <row r="209" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F209" s="19"/>
+      <c r="F209" s="5"/>
     </row>
     <row r="210" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F210" s="19"/>
+      <c r="F210" s="5"/>
     </row>
     <row r="211" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F211" s="19"/>
+      <c r="F211" s="5"/>
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F212" s="19"/>
+      <c r="F212" s="5"/>
     </row>
     <row r="213" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F213" s="19"/>
+      <c r="F213" s="5"/>
     </row>
     <row r="214" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F214" s="19"/>
+      <c r="F214" s="5"/>
     </row>
     <row r="215" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F215" s="19"/>
+      <c r="F215" s="5"/>
     </row>
     <row r="216" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F216" s="19"/>
+      <c r="F216" s="5"/>
     </row>
     <row r="217" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F217" s="19"/>
+      <c r="F217" s="5"/>
     </row>
     <row r="218" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F218" s="19"/>
+      <c r="F218" s="5"/>
     </row>
     <row r="219" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F219" s="19"/>
+      <c r="F219" s="5"/>
     </row>
     <row r="220" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F220" s="19"/>
+      <c r="F220" s="5"/>
     </row>
     <row r="221" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F221" s="19"/>
+      <c r="F221" s="5"/>
     </row>
     <row r="222" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F222" s="19"/>
+      <c r="F222" s="5"/>
     </row>
     <row r="223" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F223" s="19"/>
+      <c r="F223" s="5"/>
     </row>
     <row r="224" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F224" s="19"/>
+      <c r="F224" s="5"/>
     </row>
     <row r="225" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F225" s="19"/>
+      <c r="F225" s="5"/>
     </row>
     <row r="226" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F226" s="19"/>
+      <c r="F226" s="5"/>
     </row>
     <row r="227" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F227" s="19"/>
+      <c r="F227" s="5"/>
     </row>
     <row r="228" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F228" s="19"/>
+      <c r="F228" s="5"/>
     </row>
     <row r="229" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F229" s="19"/>
+      <c r="F229" s="5"/>
     </row>
     <row r="230" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F230" s="19"/>
+      <c r="F230" s="5"/>
     </row>
     <row r="231" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F231" s="19"/>
+      <c r="F231" s="5"/>
     </row>
     <row r="232" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F232" s="19"/>
+      <c r="F232" s="5"/>
     </row>
     <row r="233" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F233" s="19"/>
+      <c r="F233" s="5"/>
     </row>
     <row r="234" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F234" s="19"/>
+      <c r="F234" s="5"/>
     </row>
     <row r="235" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F235" s="19"/>
+      <c r="F235" s="5"/>
     </row>
     <row r="236" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F236" s="19"/>
+      <c r="F236" s="5"/>
     </row>
     <row r="237" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F237" s="19"/>
+      <c r="F237" s="5"/>
     </row>
     <row r="238" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F238" s="19"/>
+      <c r="F238" s="5"/>
     </row>
     <row r="239" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F239" s="19"/>
+      <c r="F239" s="5"/>
     </row>
     <row r="240" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F240" s="19"/>
+      <c r="F240" s="5"/>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F241" s="19"/>
+      <c r="F241" s="5"/>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F242" s="19"/>
+      <c r="F242" s="5"/>
     </row>
     <row r="243" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F243" s="19"/>
+      <c r="F243" s="5"/>
     </row>
     <row r="244" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F244" s="19"/>
+      <c r="F244" s="5"/>
     </row>
     <row r="245" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F245" s="19"/>
+      <c r="F245" s="5"/>
     </row>
     <row r="246" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F246" s="19"/>
+      <c r="F246" s="5"/>
     </row>
     <row r="247" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F247" s="19"/>
+      <c r="F247" s="5"/>
     </row>
     <row r="248" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F248" s="19"/>
+      <c r="F248" s="5"/>
     </row>
     <row r="249" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F249" s="19"/>
+      <c r="F249" s="5"/>
     </row>
     <row r="250" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F250" s="19"/>
+      <c r="F250" s="5"/>
     </row>
     <row r="251" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F251" s="19"/>
+      <c r="F251" s="5"/>
     </row>
     <row r="252" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F252" s="19"/>
+      <c r="F252" s="5"/>
     </row>
     <row r="253" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F253" s="19"/>
+      <c r="F253" s="5"/>
     </row>
     <row r="254" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F254" s="19"/>
+      <c r="F254" s="5"/>
     </row>
     <row r="255" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F255" s="19"/>
+      <c r="F255" s="5"/>
     </row>
     <row r="256" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F256" s="19"/>
+      <c r="F256" s="5"/>
     </row>
     <row r="257" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F257" s="19"/>
+      <c r="F257" s="5"/>
     </row>
     <row r="258" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F258" s="19"/>
+      <c r="F258" s="5"/>
     </row>
     <row r="259" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F259" s="19"/>
+      <c r="F259" s="5"/>
     </row>
     <row r="260" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F260" s="19"/>
+      <c r="F260" s="5"/>
     </row>
     <row r="261" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F261" s="19"/>
+      <c r="F261" s="5"/>
     </row>
     <row r="262" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F262" s="19"/>
+      <c r="F262" s="5"/>
     </row>
     <row r="263" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F263" s="19"/>
+      <c r="F263" s="5"/>
     </row>
     <row r="264" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F264" s="19"/>
+      <c r="F264" s="5"/>
     </row>
     <row r="265" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F265" s="19"/>
+      <c r="F265" s="5"/>
     </row>
     <row r="266" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F266" s="19"/>
+      <c r="F266" s="5"/>
     </row>
     <row r="267" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F267" s="19"/>
+      <c r="F267" s="5"/>
     </row>
     <row r="268" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F268" s="19"/>
+      <c r="F268" s="5"/>
     </row>
     <row r="269" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F269" s="19"/>
+      <c r="F269" s="5"/>
     </row>
     <row r="270" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F270" s="19"/>
+      <c r="F270" s="5"/>
     </row>
     <row r="271" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F271" s="19"/>
+      <c r="F271" s="5"/>
     </row>
     <row r="272" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F272" s="19"/>
+      <c r="F272" s="5"/>
     </row>
     <row r="273" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F273" s="19"/>
+      <c r="F273" s="5"/>
     </row>
     <row r="274" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F274" s="19"/>
+      <c r="F274" s="5"/>
     </row>
     <row r="275" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F275" s="19"/>
+      <c r="F275" s="5"/>
     </row>
     <row r="276" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F276" s="19"/>
+      <c r="F276" s="5"/>
     </row>
     <row r="277" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F277" s="19"/>
+      <c r="F277" s="5"/>
     </row>
     <row r="278" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F278" s="19"/>
+      <c r="F278" s="5"/>
     </row>
     <row r="279" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F279" s="19"/>
+      <c r="F279" s="5"/>
     </row>
     <row r="280" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F280" s="19"/>
+      <c r="F280" s="5"/>
     </row>
     <row r="281" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F281" s="19"/>
+      <c r="F281" s="5"/>
     </row>
     <row r="282" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F282" s="19"/>
+      <c r="F282" s="5"/>
     </row>
     <row r="283" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F283" s="19"/>
+      <c r="F283" s="5"/>
     </row>
     <row r="284" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F284" s="19"/>
+      <c r="F284" s="5"/>
     </row>
     <row r="285" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F285" s="19"/>
+      <c r="F285" s="5"/>
     </row>
     <row r="286" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F286" s="19"/>
+      <c r="F286" s="5"/>
     </row>
     <row r="287" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F287" s="19"/>
+      <c r="F287" s="5"/>
     </row>
     <row r="288" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F288" s="19"/>
+      <c r="F288" s="5"/>
     </row>
     <row r="289" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F289" s="19"/>
+      <c r="F289" s="5"/>
     </row>
     <row r="290" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F290" s="19"/>
+      <c r="F290" s="5"/>
     </row>
     <row r="291" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F291" s="19"/>
+      <c r="F291" s="5"/>
     </row>
     <row r="292" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F292" s="19"/>
+      <c r="F292" s="5"/>
     </row>
     <row r="293" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F293" s="19"/>
+      <c r="F293" s="5"/>
     </row>
     <row r="294" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F294" s="19"/>
+      <c r="F294" s="5"/>
     </row>
     <row r="295" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F295" s="19"/>
+      <c r="F295" s="5"/>
     </row>
     <row r="296" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F296" s="19"/>
+      <c r="F296" s="5"/>
     </row>
     <row r="297" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F297" s="19"/>
+      <c r="F297" s="5"/>
     </row>
     <row r="298" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F298" s="19"/>
+      <c r="F298" s="5"/>
     </row>
     <row r="299" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F299" s="19"/>
+      <c r="F299" s="5"/>
     </row>
     <row r="300" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F300" s="19"/>
+      <c r="F300" s="5"/>
     </row>
     <row r="301" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F301" s="19"/>
+      <c r="F301" s="5"/>
     </row>
     <row r="302" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F302" s="19"/>
+      <c r="F302" s="5"/>
     </row>
     <row r="303" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F303" s="19"/>
+      <c r="F303" s="5"/>
     </row>
     <row r="304" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F304" s="19"/>
+      <c r="F304" s="5"/>
     </row>
     <row r="305" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F305" s="19"/>
+      <c r="F305" s="5"/>
     </row>
     <row r="306" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F306" s="19"/>
+      <c r="F306" s="5"/>
     </row>
     <row r="307" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F307" s="19"/>
+      <c r="F307" s="5"/>
     </row>
     <row r="308" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F308" s="19"/>
+      <c r="F308" s="5"/>
     </row>
     <row r="309" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F309" s="19"/>
+      <c r="F309" s="5"/>
     </row>
     <row r="310" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F310" s="19"/>
+      <c r="F310" s="5"/>
     </row>
     <row r="311" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F311" s="19"/>
+      <c r="F311" s="5"/>
     </row>
     <row r="312" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F312" s="19"/>
+      <c r="F312" s="5"/>
     </row>
     <row r="313" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F313" s="19"/>
+      <c r="F313" s="5"/>
     </row>
     <row r="314" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F314" s="19"/>
+      <c r="F314" s="5"/>
     </row>
     <row r="315" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F315" s="19"/>
+      <c r="F315" s="5"/>
     </row>
     <row r="316" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F316" s="19"/>
+      <c r="F316" s="5"/>
     </row>
     <row r="317" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F317" s="19"/>
+      <c r="F317" s="5"/>
     </row>
     <row r="318" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F318" s="19"/>
+      <c r="F318" s="5"/>
     </row>
     <row r="319" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F319" s="19"/>
+      <c r="F319" s="5"/>
     </row>
     <row r="320" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F320" s="19"/>
+      <c r="F320" s="5"/>
     </row>
     <row r="321" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F321" s="19"/>
+      <c r="F321" s="5"/>
     </row>
     <row r="322" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F322" s="19"/>
+      <c r="F322" s="5"/>
     </row>
     <row r="323" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F323" s="19"/>
+      <c r="F323" s="5"/>
     </row>
     <row r="324" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F324" s="19"/>
+      <c r="F324" s="5"/>
     </row>
     <row r="325" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F325" s="19"/>
+      <c r="F325" s="5"/>
     </row>
     <row r="326" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F326" s="19"/>
+      <c r="F326" s="5"/>
     </row>
     <row r="327" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F327" s="19"/>
+      <c r="F327" s="5"/>
     </row>
     <row r="328" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F328" s="19"/>
+      <c r="F328" s="5"/>
     </row>
     <row r="329" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F329" s="19"/>
+      <c r="F329" s="5"/>
     </row>
     <row r="330" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F330" s="19"/>
+      <c r="F330" s="5"/>
     </row>
     <row r="331" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F331" s="19"/>
+      <c r="F331" s="5"/>
     </row>
     <row r="332" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F332" s="19"/>
+      <c r="F332" s="5"/>
     </row>
     <row r="333" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F333" s="19"/>
+      <c r="F333" s="5"/>
     </row>
     <row r="334" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F334" s="19"/>
+      <c r="F334" s="5"/>
     </row>
     <row r="335" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F335" s="19"/>
+      <c r="F335" s="5"/>
     </row>
     <row r="336" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F336" s="19"/>
+      <c r="F336" s="5"/>
     </row>
     <row r="337" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F337" s="19"/>
+      <c r="F337" s="5"/>
     </row>
     <row r="338" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F338" s="19"/>
+      <c r="F338" s="5"/>
     </row>
     <row r="339" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F339" s="19"/>
+      <c r="F339" s="5"/>
     </row>
     <row r="340" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F340" s="19"/>
+      <c r="F340" s="5"/>
     </row>
     <row r="341" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F341" s="19"/>
+      <c r="F341" s="5"/>
     </row>
     <row r="342" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F342" s="19"/>
+      <c r="F342" s="5"/>
     </row>
     <row r="343" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F343" s="19"/>
+      <c r="F343" s="5"/>
     </row>
     <row r="344" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F344" s="19"/>
+      <c r="F344" s="5"/>
     </row>
     <row r="345" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F345" s="19"/>
+      <c r="F345" s="5"/>
     </row>
     <row r="346" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F346" s="19"/>
+      <c r="F346" s="5"/>
     </row>
     <row r="347" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F347" s="19"/>
+      <c r="F347" s="5"/>
     </row>
     <row r="348" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F348" s="19"/>
+      <c r="F348" s="5"/>
     </row>
     <row r="349" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F349" s="19"/>
+      <c r="F349" s="5"/>
     </row>
     <row r="350" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F350" s="19"/>
+      <c r="F350" s="5"/>
     </row>
     <row r="351" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F351" s="19"/>
+      <c r="F351" s="5"/>
     </row>
     <row r="352" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F352" s="19"/>
+      <c r="F352" s="5"/>
     </row>
     <row r="353" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F353" s="19"/>
+      <c r="F353" s="5"/>
     </row>
     <row r="354" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F354" s="19"/>
+      <c r="F354" s="5"/>
     </row>
     <row r="355" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F355" s="19"/>
+      <c r="F355" s="5"/>
     </row>
     <row r="356" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F356" s="19"/>
+      <c r="F356" s="5"/>
     </row>
     <row r="357" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F357" s="19"/>
+      <c r="F357" s="5"/>
     </row>
     <row r="358" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F358" s="19"/>
+      <c r="F358" s="5"/>
     </row>
     <row r="359" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F359" s="19"/>
+      <c r="F359" s="5"/>
     </row>
     <row r="360" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F360" s="19"/>
+      <c r="F360" s="5"/>
     </row>
     <row r="361" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F361" s="19"/>
+      <c r="F361" s="5"/>
     </row>
     <row r="362" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F362" s="19"/>
+      <c r="F362" s="5"/>
     </row>
     <row r="363" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F363" s="19"/>
+      <c r="F363" s="5"/>
     </row>
     <row r="364" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F364" s="19"/>
+      <c r="F364" s="5"/>
     </row>
     <row r="365" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F365" s="19"/>
+      <c r="F365" s="5"/>
     </row>
     <row r="366" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F366" s="19"/>
+      <c r="F366" s="5"/>
     </row>
     <row r="367" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F367" s="19"/>
+      <c r="F367" s="5"/>
     </row>
     <row r="368" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F368" s="19"/>
+      <c r="F368" s="5"/>
     </row>
     <row r="369" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F369" s="19"/>
+      <c r="F369" s="5"/>
     </row>
     <row r="370" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F370" s="19"/>
+      <c r="F370" s="5"/>
     </row>
     <row r="371" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F371" s="19"/>
+      <c r="F371" s="5"/>
     </row>
     <row r="372" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F372" s="19"/>
+      <c r="F372" s="5"/>
     </row>
     <row r="373" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F373" s="19"/>
+      <c r="F373" s="5"/>
     </row>
     <row r="374" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F374" s="19"/>
+      <c r="F374" s="5"/>
     </row>
     <row r="375" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F375" s="19"/>
+      <c r="F375" s="5"/>
     </row>
     <row r="376" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F376" s="19"/>
+      <c r="F376" s="5"/>
     </row>
     <row r="377" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F377" s="19"/>
+      <c r="F377" s="5"/>
     </row>
     <row r="378" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F378" s="19"/>
+      <c r="F378" s="5"/>
     </row>
     <row r="379" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F379" s="19"/>
+      <c r="F379" s="5"/>
     </row>
     <row r="380" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F380" s="19"/>
+      <c r="F380" s="5"/>
     </row>
     <row r="381" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F381" s="19"/>
+      <c r="F381" s="5"/>
     </row>
     <row r="382" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F382" s="19"/>
+      <c r="F382" s="5"/>
     </row>
     <row r="383" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F383" s="19"/>
+      <c r="F383" s="5"/>
     </row>
     <row r="384" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F384" s="19"/>
+      <c r="F384" s="5"/>
     </row>
     <row r="385" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F385" s="19"/>
+      <c r="F385" s="5"/>
     </row>
     <row r="386" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F386" s="19"/>
+      <c r="F386" s="5"/>
     </row>
     <row r="387" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F387" s="19"/>
+      <c r="F387" s="5"/>
     </row>
     <row r="388" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F388" s="19"/>
+      <c r="F388" s="5"/>
     </row>
     <row r="389" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F389" s="19"/>
+      <c r="F389" s="5"/>
     </row>
     <row r="390" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F390" s="19"/>
+      <c r="F390" s="5"/>
     </row>
     <row r="391" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F391" s="19"/>
+      <c r="F391" s="5"/>
     </row>
     <row r="392" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F392" s="19"/>
+      <c r="F392" s="5"/>
     </row>
     <row r="393" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F393" s="19"/>
+      <c r="F393" s="5"/>
     </row>
     <row r="394" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F394" s="19"/>
+      <c r="F394" s="5"/>
     </row>
     <row r="395" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F395" s="19"/>
+      <c r="F395" s="5"/>
     </row>
     <row r="396" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F396" s="19"/>
+      <c r="F396" s="5"/>
     </row>
     <row r="397" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F397" s="19"/>
+      <c r="F397" s="5"/>
     </row>
     <row r="398" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F398" s="19"/>
+      <c r="F398" s="5"/>
     </row>
     <row r="399" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F399" s="19"/>
+      <c r="F399" s="5"/>
     </row>
     <row r="400" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F400" s="19"/>
+      <c r="F400" s="5"/>
     </row>
     <row r="401" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F401" s="19"/>
+      <c r="F401" s="5"/>
     </row>
     <row r="402" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F402" s="19"/>
+      <c r="F402" s="5"/>
     </row>
     <row r="403" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F403" s="19"/>
+      <c r="F403" s="5"/>
     </row>
     <row r="404" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F404" s="19"/>
+      <c r="F404" s="5"/>
     </row>
     <row r="405" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F405" s="19"/>
+      <c r="F405" s="5"/>
     </row>
     <row r="406" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F406" s="19"/>
+      <c r="F406" s="5"/>
     </row>
     <row r="407" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F407" s="19"/>
+      <c r="F407" s="5"/>
     </row>
     <row r="408" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F408" s="19"/>
+      <c r="F408" s="5"/>
     </row>
     <row r="409" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F409" s="19"/>
+      <c r="F409" s="5"/>
     </row>
     <row r="410" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F410" s="19"/>
+      <c r="F410" s="5"/>
     </row>
     <row r="411" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F411" s="19"/>
+      <c r="F411" s="5"/>
     </row>
     <row r="412" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F412" s="19"/>
+      <c r="F412" s="5"/>
     </row>
     <row r="413" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F413" s="19"/>
+      <c r="F413" s="5"/>
     </row>
     <row r="414" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F414" s="19"/>
+      <c r="F414" s="5"/>
     </row>
     <row r="415" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F415" s="19"/>
+      <c r="F415" s="5"/>
     </row>
     <row r="416" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F416" s="19"/>
+      <c r="F416" s="5"/>
     </row>
     <row r="417" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F417" s="19"/>
+      <c r="F417" s="5"/>
     </row>
     <row r="418" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F418" s="19"/>
+      <c r="F418" s="5"/>
     </row>
     <row r="419" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F419" s="19"/>
+      <c r="F419" s="5"/>
     </row>
     <row r="420" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F420" s="19"/>
+      <c r="F420" s="5"/>
     </row>
     <row r="421" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F421" s="19"/>
+      <c r="F421" s="5"/>
     </row>
     <row r="422" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F422" s="19"/>
+      <c r="F422" s="5"/>
     </row>
     <row r="423" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F423" s="19"/>
+      <c r="F423" s="5"/>
     </row>
     <row r="424" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F424" s="19"/>
+      <c r="F424" s="5"/>
     </row>
     <row r="425" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F425" s="19"/>
+      <c r="F425" s="5"/>
     </row>
     <row r="426" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F426" s="19"/>
+      <c r="F426" s="5"/>
     </row>
     <row r="427" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F427" s="19"/>
+      <c r="F427" s="5"/>
     </row>
     <row r="428" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F428" s="19"/>
+      <c r="F428" s="5"/>
     </row>
     <row r="429" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F429" s="19"/>
+      <c r="F429" s="5"/>
     </row>
     <row r="430" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F430" s="19"/>
+      <c r="F430" s="5"/>
     </row>
     <row r="431" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F431" s="19"/>
+      <c r="F431" s="5"/>
     </row>
     <row r="432" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F432" s="19"/>
+      <c r="F432" s="5"/>
     </row>
     <row r="433" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F433" s="19"/>
+      <c r="F433" s="5"/>
     </row>
     <row r="434" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F434" s="19"/>
+      <c r="F434" s="5"/>
     </row>
     <row r="435" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F435" s="19"/>
+      <c r="F435" s="5"/>
     </row>
     <row r="436" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F436" s="19"/>
+      <c r="F436" s="5"/>
     </row>
     <row r="437" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F437" s="19"/>
+      <c r="F437" s="5"/>
     </row>
     <row r="438" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F438" s="19"/>
+      <c r="F438" s="5"/>
     </row>
     <row r="439" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F439" s="19"/>
+      <c r="F439" s="5"/>
     </row>
     <row r="440" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F440" s="19"/>
+      <c r="F440" s="5"/>
     </row>
     <row r="441" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F441" s="19"/>
+      <c r="F441" s="5"/>
     </row>
     <row r="442" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F442" s="19"/>
+      <c r="F442" s="5"/>
     </row>
     <row r="443" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F443" s="19"/>
+      <c r="F443" s="5"/>
     </row>
     <row r="444" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F444" s="19"/>
+      <c r="F444" s="5"/>
     </row>
     <row r="445" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F445" s="19"/>
+      <c r="F445" s="5"/>
     </row>
     <row r="446" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F446" s="19"/>
+      <c r="F446" s="5"/>
     </row>
     <row r="447" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F447" s="19"/>
+      <c r="F447" s="5"/>
     </row>
     <row r="448" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F448" s="19"/>
+      <c r="F448" s="5"/>
     </row>
     <row r="449" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F449" s="19"/>
+      <c r="F449" s="5"/>
     </row>
     <row r="450" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F450" s="19"/>
+      <c r="F450" s="5"/>
     </row>
     <row r="451" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F451" s="19"/>
+      <c r="F451" s="5"/>
     </row>
     <row r="452" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F452" s="19"/>
+      <c r="F452" s="5"/>
     </row>
     <row r="453" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F453" s="19"/>
+      <c r="F453" s="5"/>
     </row>
     <row r="454" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F454" s="19"/>
+      <c r="F454" s="5"/>
     </row>
     <row r="455" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F455" s="19"/>
+      <c r="F455" s="5"/>
     </row>
     <row r="456" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F456" s="19"/>
+      <c r="F456" s="5"/>
     </row>
     <row r="457" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F457" s="19"/>
+      <c r="F457" s="5"/>
     </row>
     <row r="458" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F458" s="19"/>
+      <c r="F458" s="5"/>
     </row>
     <row r="459" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F459" s="19"/>
+      <c r="F459" s="5"/>
     </row>
     <row r="460" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F460" s="19"/>
+      <c r="F460" s="5"/>
     </row>
     <row r="461" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F461" s="19"/>
+      <c r="F461" s="5"/>
     </row>
     <row r="462" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F462" s="19"/>
+      <c r="F462" s="5"/>
     </row>
     <row r="463" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F463" s="19"/>
+      <c r="F463" s="5"/>
     </row>
     <row r="464" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F464" s="19"/>
+      <c r="F464" s="5"/>
     </row>
     <row r="465" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F465" s="19"/>
+      <c r="F465" s="5"/>
     </row>
     <row r="466" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F466" s="19"/>
+      <c r="F466" s="5"/>
     </row>
     <row r="467" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F467" s="19"/>
+      <c r="F467" s="5"/>
     </row>
     <row r="468" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F468" s="19"/>
+      <c r="F468" s="5"/>
     </row>
     <row r="469" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F469" s="19"/>
+      <c r="F469" s="5"/>
     </row>
     <row r="470" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F470" s="19"/>
+      <c r="F470" s="5"/>
     </row>
     <row r="471" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F471" s="19"/>
+      <c r="F471" s="5"/>
     </row>
     <row r="472" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F472" s="19"/>
+      <c r="F472" s="5"/>
     </row>
     <row r="473" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F473" s="19"/>
+      <c r="F473" s="5"/>
     </row>
     <row r="474" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F474" s="19"/>
+      <c r="F474" s="5"/>
     </row>
     <row r="475" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F475" s="19"/>
+      <c r="F475" s="5"/>
     </row>
     <row r="476" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F476" s="19"/>
+      <c r="F476" s="5"/>
     </row>
     <row r="477" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F477" s="19"/>
+      <c r="F477" s="5"/>
     </row>
     <row r="478" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F478" s="19"/>
+      <c r="F478" s="5"/>
     </row>
     <row r="479" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F479" s="19"/>
+      <c r="F479" s="5"/>
     </row>
     <row r="480" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F480" s="19"/>
+      <c r="F480" s="5"/>
     </row>
     <row r="481" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F481" s="19"/>
+      <c r="F481" s="5"/>
     </row>
     <row r="482" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F482" s="19"/>
+      <c r="F482" s="5"/>
     </row>
     <row r="483" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F483" s="19"/>
+      <c r="F483" s="5"/>
     </row>
     <row r="484" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F484" s="19"/>
+      <c r="F484" s="5"/>
     </row>
     <row r="485" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F485" s="19"/>
+      <c r="F485" s="5"/>
     </row>
     <row r="486" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F486" s="19"/>
+      <c r="F486" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/data/schools.2023.xlsx
+++ b/data/schools.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F273E-72C3-4F5F-8148-5661364D7F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD63A23-7622-419E-A7D3-40EF8C77236B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-1065" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="223">
   <si>
     <t>学校代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -782,6 +782,10 @@
   </si>
   <si>
     <t>市直属普高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非5+2普高面向5+2招生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -903,7 +907,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1187,8 +1190,8 @@
   <dimension ref="A1:AB486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N81" sqref="N81"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1218,7 @@
     <col min="21" max="21" width="8.25" style="5" customWidth="1"/>
     <col min="22" max="22" width="6.625" style="5" customWidth="1"/>
     <col min="23" max="23" width="7.625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="6.5" style="16" customWidth="1"/>
+    <col min="24" max="24" width="6.5" style="5" customWidth="1"/>
     <col min="25" max="25" width="9" style="5"/>
     <col min="26" max="26" width="8.75" style="5" customWidth="1"/>
     <col min="27" max="27" width="8" style="5" customWidth="1"/>
@@ -1855,8 +1858,7 @@
         <v>560</v>
       </c>
       <c r="M7" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="N7" s="7">
         <f>0</f>
@@ -3570,8 +3572,7 @@
         <v>980</v>
       </c>
       <c r="M24" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="N24" s="7">
         <f>0</f>
@@ -3674,8 +3675,7 @@
         <v>1250</v>
       </c>
       <c r="M25" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="N25" s="7">
         <f>0</f>
@@ -3877,8 +3877,7 @@
         <v>1000</v>
       </c>
       <c r="M27" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N27" s="7">
         <f>0</f>
@@ -5289,8 +5288,7 @@
         <v>300</v>
       </c>
       <c r="M41" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N41" s="7">
         <f>0</f>
@@ -5469,7 +5467,7 @@
         <v>186</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F43" s="13">
         <v>11104</v>
@@ -6115,8 +6113,7 @@
         <v>1100</v>
       </c>
       <c r="M49" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="N49" s="7">
         <f>0</f>
@@ -7412,7 +7409,7 @@
         <v>186</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F62" s="14">
         <f>11104</f>
@@ -7440,8 +7437,7 @@
         <v>100</v>
       </c>
       <c r="M62" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" s="7">
         <f>0</f>
@@ -7752,8 +7748,7 @@
         <v>150</v>
       </c>
       <c r="M65" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N65" s="7">
         <f>0</f>
@@ -7858,8 +7853,7 @@
         <v>150</v>
       </c>
       <c r="M66" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N66" s="7">
         <f>0</f>
@@ -7964,8 +7958,7 @@
         <v>150</v>
       </c>
       <c r="M67" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N67" s="7">
         <f>0</f>
@@ -8379,8 +8372,7 @@
         <v>250</v>
       </c>
       <c r="M71" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="N71" s="7">
         <f>0</f>
@@ -8485,8 +8477,7 @@
         <v>100</v>
       </c>
       <c r="M72" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N72" s="7">
         <f>0</f>
@@ -9706,8 +9697,7 @@
         <v>700</v>
       </c>
       <c r="M84" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="N84" s="7">
         <f>0</f>
@@ -10116,8 +10106,7 @@
         <v>700</v>
       </c>
       <c r="M88" s="7">
-        <f>0</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="N88" s="7">
         <f>0</f>

--- a/data/schools.2023.xlsx
+++ b/data/schools.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD63A23-7622-419E-A7D3-40EF8C77236B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0690D1-9FA4-43D4-B68C-98771E9FE595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-1065" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,9 +397,6 @@
     <t>12002</t>
   </si>
   <si>
-    <t>淮☐中学</t>
-  </si>
-  <si>
     <t>13001</t>
   </si>
   <si>
@@ -786,6 +783,10 @@
   </si>
   <si>
     <t>非5+2普高面向5+2招生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮口中学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1190,8 +1191,8 @@
   <dimension ref="A1:AB486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1234,13 +1235,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>3</v>
@@ -1261,55 +1262,55 @@
         <v>7</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="R1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -1320,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="12">
         <v>3254</v>
@@ -1420,13 +1421,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="13">
         <v>6308</v>
@@ -1521,13 +1522,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="13">
         <v>11408</v>
@@ -1622,13 +1623,13 @@
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F5" s="13">
         <v>8650</v>
@@ -1723,13 +1724,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F6" s="13">
         <v>12164</v>
@@ -1821,16 +1822,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F7" s="14">
         <f>5616</f>
@@ -1927,13 +1928,13 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F8" s="13">
         <v>7642</v>
@@ -2027,13 +2028,13 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F9" s="13">
         <v>4553</v>
@@ -2127,13 +2128,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F10" s="13">
         <v>1454</v>
@@ -2227,13 +2228,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F11" s="13">
         <v>882</v>
@@ -2328,13 +2329,13 @@
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="13">
         <v>14537</v>
@@ -2429,13 +2430,13 @@
         <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" s="12">
         <v>13323</v>
@@ -2530,13 +2531,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F14" s="13">
         <v>8319</v>
@@ -2631,13 +2632,13 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="13">
         <v>2022</v>
@@ -2730,13 +2731,13 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="13">
         <v>12324</v>
@@ -2830,13 +2831,13 @@
         <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="13">
         <v>8498</v>
@@ -2931,13 +2932,13 @@
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" s="12">
         <v>6153</v>
@@ -3032,13 +3033,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F19" s="13">
         <v>6153</v>
@@ -3132,13 +3133,13 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F20" s="13">
         <v>9605</v>
@@ -3233,13 +3234,13 @@
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F21" s="13">
         <v>9139</v>
@@ -3335,13 +3336,13 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F22" s="13">
         <v>9930</v>
@@ -3436,13 +3437,13 @@
         <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F23" s="13">
         <v>4357</v>
@@ -3535,16 +3536,16 @@
         <v>51</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F24" s="14">
         <f>10380</f>
@@ -3638,16 +3639,16 @@
         <v>52</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F25" s="14">
         <f>14537</f>
@@ -3744,13 +3745,13 @@
         <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F26" s="13">
         <v>3799</v>
@@ -3840,16 +3841,16 @@
         <v>54</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F27" s="14">
         <f>14537</f>
@@ -3948,13 +3949,13 @@
         <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F28" s="13">
         <v>430</v>
@@ -4047,13 +4048,13 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F29" s="13">
         <v>4728</v>
@@ -4146,13 +4147,13 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F30" s="13">
         <v>9930</v>
@@ -4247,13 +4248,13 @@
         <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F31" s="13">
         <v>11866</v>
@@ -4347,13 +4348,13 @@
         <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F32" s="12">
         <v>8972</v>
@@ -4448,13 +4449,13 @@
         <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F33" s="13">
         <v>6468</v>
@@ -4549,13 +4550,13 @@
         <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F34" s="13">
         <v>5434</v>
@@ -4649,13 +4650,13 @@
         <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F35" s="13">
         <v>8972</v>
@@ -4750,13 +4751,13 @@
         <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F36" s="13">
         <v>10959</v>
@@ -4851,13 +4852,13 @@
         <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F37" s="13">
         <v>13025</v>
@@ -4953,13 +4954,13 @@
         <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F38" s="13">
         <v>7145</v>
@@ -5054,13 +5055,13 @@
         <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F39" s="13">
         <v>12892</v>
@@ -5155,13 +5156,13 @@
         <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40" s="13">
         <v>2456</v>
@@ -5251,16 +5252,16 @@
         <v>77</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F41" s="14">
         <f>10380</f>
@@ -5359,13 +5360,13 @@
         <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F42" s="13">
         <v>4160</v>
@@ -5461,13 +5462,13 @@
         <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F43" s="13">
         <v>11104</v>
@@ -5564,13 +5565,13 @@
         <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F44" s="13">
         <v>13025</v>
@@ -5667,13 +5668,13 @@
         <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F45" s="13">
         <v>14537</v>
@@ -5770,13 +5771,13 @@
         <v>93</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F46" s="13">
         <v>13159</v>
@@ -5870,16 +5871,16 @@
         <v>94</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F47" s="13">
         <v>14297</v>
@@ -5976,13 +5977,13 @@
         <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F48" s="12">
         <v>14537</v>
@@ -6073,19 +6074,19 @@
     </row>
     <row r="49" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F49" s="14">
         <f>14537</f>
@@ -6184,13 +6185,13 @@
         <v>98</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F50" s="13">
         <v>14537</v>
@@ -6284,16 +6285,16 @@
         <v>99</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" s="13">
         <v>14537</v>
@@ -6386,16 +6387,16 @@
         <v>100</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F52" s="13">
         <v>14537</v>
@@ -6492,13 +6493,13 @@
         <v>102</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F53" s="13">
         <v>14537</v>
@@ -6595,13 +6596,13 @@
         <v>104</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F54" s="13">
         <v>14537</v>
@@ -6698,13 +6699,13 @@
         <v>106</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F55" s="13">
         <v>14537</v>
@@ -6795,19 +6796,19 @@
     </row>
     <row r="56" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>212</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F56" s="13">
         <v>0</v>
@@ -6885,16 +6886,16 @@
         <v>107</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F57" s="13">
         <v>14537</v>
@@ -6991,13 +6992,13 @@
         <v>109</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F58" s="13">
         <v>14537</v>
@@ -7091,16 +7092,16 @@
         <v>110</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F59" s="13">
         <v>14537</v>
@@ -7191,19 +7192,19 @@
     </row>
     <row r="60" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F60" s="13">
         <v>11250</v>
@@ -7294,19 +7295,19 @@
     </row>
     <row r="61" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F61" s="13">
         <v>7145</v>
@@ -7397,19 +7398,19 @@
     </row>
     <row r="62" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F62" s="14">
         <f>11104</f>
@@ -7502,19 +7503,19 @@
     </row>
     <row r="63" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F63" s="12">
         <v>11250</v>
@@ -7605,19 +7606,19 @@
     </row>
     <row r="64" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F64" s="13">
         <v>14537</v>
@@ -7708,19 +7709,19 @@
     </row>
     <row r="65" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F65" s="14">
         <f>14537</f>
@@ -7813,19 +7814,19 @@
     </row>
     <row r="66" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F66" s="14">
         <f>13741</f>
@@ -7918,19 +7919,19 @@
     </row>
     <row r="67" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F67" s="14">
         <f>14537</f>
@@ -8023,19 +8024,19 @@
     </row>
     <row r="68" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F68" s="13">
         <v>11250</v>
@@ -8126,19 +8127,19 @@
     </row>
     <row r="69" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F69" s="13">
         <v>14537</v>
@@ -8229,19 +8230,19 @@
     </row>
     <row r="70" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F70" s="13">
         <v>14537</v>
@@ -8332,19 +8333,19 @@
     </row>
     <row r="71" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F71" s="14">
         <f>14537</f>
@@ -8437,19 +8438,19 @@
     </row>
     <row r="72" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F72" s="14">
         <f>14537</f>
@@ -8542,19 +8543,19 @@
     </row>
     <row r="73" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F73" s="13">
         <v>12164</v>
@@ -8645,19 +8646,19 @@
     </row>
     <row r="74" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F74" s="13">
         <v>8972</v>
@@ -8748,19 +8749,19 @@
     </row>
     <row r="75" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F75" s="13">
         <v>14537</v>
@@ -8851,19 +8852,19 @@
     </row>
     <row r="76" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F76" s="13">
         <v>14537</v>
@@ -8954,19 +8955,19 @@
     </row>
     <row r="77" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F77" s="13">
         <v>14537</v>
@@ -9057,19 +9058,19 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F78" s="13">
         <v>7145</v>
@@ -9157,19 +9158,19 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F79" s="13">
         <v>10532</v>
@@ -9257,19 +9258,19 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F80" s="13">
         <v>6308</v>
@@ -9358,19 +9359,19 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F81" s="13">
         <v>1328</v>
@@ -9456,19 +9457,19 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F82" s="13">
         <v>7801</v>
@@ -9557,19 +9558,19 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F83" s="13">
         <v>2919</v>
@@ -9657,19 +9658,19 @@
     </row>
     <row r="84" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F84" s="14">
         <f>14537</f>
@@ -9762,19 +9763,19 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F85" s="13">
         <v>3082</v>
@@ -9864,19 +9865,19 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F86" s="13">
         <v>14537</v>
@@ -9966,19 +9967,19 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F87" s="13">
         <v>12892</v>
@@ -10069,16 +10070,16 @@
         <v>21017</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F88" s="14">
         <f>14537</f>
@@ -10169,19 +10170,19 @@
     </row>
     <row r="89" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F89" s="13">
         <v>13323</v>
@@ -10272,19 +10273,19 @@
     </row>
     <row r="90" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F90" s="13">
         <v>14415</v>
@@ -10375,19 +10376,19 @@
     </row>
     <row r="91" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F91" s="13">
         <v>5799</v>
@@ -10478,19 +10479,19 @@
     </row>
     <row r="92" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F92" s="13">
         <v>4160</v>
@@ -11812,29 +11813,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/schools.2023.xlsx
+++ b/data/schools.2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9B75A7-B364-4A6B-BCB8-99A7D0C007E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC6EFF7-0EB1-43D8-9DFB-D30732D80D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-1065" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -930,6 +930,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,12 +1214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1390,11 +1392,11 @@
         <v>470</v>
       </c>
       <c r="O2" s="7">
-        <f>M2-N2</f>
+        <f t="shared" ref="O2:O17" si="0">M2-N2</f>
         <v>30</v>
       </c>
       <c r="P2" s="7">
-        <f>N2-AA2-AD2-Z2</f>
+        <f t="shared" ref="P2:P33" si="1">N2-AA2-AD2-Z2</f>
         <v>187</v>
       </c>
       <c r="Q2" s="7">
@@ -1497,11 +1499,11 @@
         <v>376</v>
       </c>
       <c r="O3" s="7">
-        <f>M3-N3</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="P3" s="7">
-        <f>N3-AA3-AD3-Z3</f>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="Q3" s="7">
@@ -1604,11 +1606,11 @@
         <v>462</v>
       </c>
       <c r="O4" s="7">
-        <f>M4-N4</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="P4" s="7">
-        <f>N4-AA4-AD4-Z4</f>
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="Q4" s="7">
@@ -1710,11 +1712,11 @@
         <v>470</v>
       </c>
       <c r="O5" s="7">
-        <f>M5-N5</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="P5" s="7">
-        <f>N5-AA5-AD5-Z5</f>
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="Q5" s="7">
@@ -1817,11 +1819,11 @@
         <v>570</v>
       </c>
       <c r="O6" s="7">
-        <f>M6-N6</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="P6" s="7">
-        <f>N6-AA6-AD6-Z6</f>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="Q6" s="7">
@@ -1922,11 +1924,11 @@
         <v>462</v>
       </c>
       <c r="O7" s="7">
-        <f>M7-N7</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="P7" s="7">
-        <f>N7-AA7-AD7-Z7</f>
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="Q7" s="7">
@@ -2028,11 +2030,11 @@
         <v>282</v>
       </c>
       <c r="O8" s="7">
-        <f>M8-N8</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="P8" s="7">
-        <f>N8-AA8-AD8-Z8</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="Q8" s="7">
@@ -2135,11 +2137,11 @@
         <v>329</v>
       </c>
       <c r="O9" s="7">
-        <f>M9-N9</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="P9" s="7">
-        <f>N9-AA9-AD9-Z9</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="Q9" s="7">
@@ -2244,11 +2246,11 @@
         <v>450</v>
       </c>
       <c r="O10" s="7">
-        <f>M10-N10</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="P10" s="7">
-        <f>N10-AA10-AD10-Z10</f>
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="Q10" s="7">
@@ -2349,11 +2351,11 @@
         <v>354</v>
       </c>
       <c r="O11" s="7">
-        <f>M11-N11</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="P11" s="7">
-        <f>N11-AA11-AD11-Z11</f>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
       <c r="Q11" s="7">
@@ -2457,11 +2459,11 @@
         <v>282</v>
       </c>
       <c r="O12" s="7">
-        <f>M12-N12</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="P12" s="7">
-        <f>N12-AA12-AD12-Z12</f>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="Q12" s="7">
@@ -2566,11 +2568,11 @@
         <v>50</v>
       </c>
       <c r="O13" s="7">
-        <f>M13-N13</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="P13" s="7">
-        <f>N13-AA13-AD13-Z13</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="Q13" s="7">
@@ -2676,11 +2678,11 @@
         <v>141</v>
       </c>
       <c r="O14" s="7">
-        <f>M14-N14</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="P14" s="7">
-        <f>N14-AA14-AD14-Z14</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="Q14" s="7">
@@ -2786,11 +2788,11 @@
         <v>294</v>
       </c>
       <c r="O15" s="7">
-        <f>M15-N15</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="P15" s="7">
-        <f>N15-AA15-AD15-Z15</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="Q15" s="7">
@@ -2892,11 +2894,11 @@
         <v>600</v>
       </c>
       <c r="O16" s="7">
-        <f>M16-N16</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="P16" s="7">
-        <f>N16-AA16-AD16-Z16</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="Q16" s="7">
@@ -2998,11 +3000,11 @@
         <v>423</v>
       </c>
       <c r="O17" s="7">
-        <f>M17-N17</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="P17" s="7">
-        <f>N17-AA17-AD17-Z17</f>
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="Q17" s="7">
@@ -3059,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -3083,7 +3085,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="19">
         <v>6</v>
       </c>
       <c r="I18" s="3">
@@ -3111,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="7">
-        <f>N18-AA18-AD18-Z18</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="Q18" s="7">
@@ -3215,11 +3217,11 @@
         <v>50</v>
       </c>
       <c r="O19" s="7">
-        <f>M19-N19</f>
+        <f t="shared" ref="O19:O39" si="2">M19-N19</f>
         <v>50</v>
       </c>
       <c r="P19" s="7">
-        <f>N19-AA19-AD19-Z19</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="Q19" s="7">
@@ -3325,11 +3327,11 @@
         <v>376</v>
       </c>
       <c r="O20" s="7">
-        <f>M20-N20</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="P20" s="7">
-        <f>N20-AA20-AD20-Z20</f>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="Q20" s="7">
@@ -3433,11 +3435,11 @@
         <v>376</v>
       </c>
       <c r="O21" s="7">
-        <f>M21-N21</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="P21" s="7">
-        <f>N21-AA21-AD21-Z21</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="Q21" s="7">
@@ -3540,11 +3542,11 @@
         <v>470</v>
       </c>
       <c r="O22" s="7">
-        <f>M22-N22</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="P22" s="7">
-        <f>N22-AA22-AD22-Z22</f>
+        <f t="shared" si="1"/>
         <v>185</v>
       </c>
       <c r="Q22" s="7">
@@ -3648,11 +3650,11 @@
         <v>307</v>
       </c>
       <c r="O23" s="7">
-        <f>M23-N23</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="P23" s="7">
-        <f>N23-AA23-AD23-Z23</f>
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="Q23" s="7">
@@ -3756,11 +3758,11 @@
         <v>297</v>
       </c>
       <c r="O24" s="7">
-        <f>M24-N24</f>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="P24" s="7">
-        <f>N24-AA24-AD24-Z24</f>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="Q24" s="7">
@@ -3864,11 +3866,11 @@
         <v>329</v>
       </c>
       <c r="O25" s="7">
-        <f>M25-N25</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="P25" s="7">
-        <f>N25-AA25-AD25-Z25</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="Q25" s="7">
@@ -3972,11 +3974,11 @@
         <v>25</v>
       </c>
       <c r="O26" s="7">
-        <f>M26-N26</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="P26" s="7">
-        <f>N26-AA26-AD26-Z26</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="Q26" s="7">
@@ -4082,11 +4084,11 @@
         <v>307</v>
       </c>
       <c r="O27" s="7">
-        <f>M27-N27</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="P27" s="7">
-        <f>N27-AA27-AD27-Z27</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="Q27" s="7">
@@ -4189,11 +4191,11 @@
         <v>230</v>
       </c>
       <c r="O28" s="7">
-        <f>M28-N28</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="P28" s="7">
-        <f>N28-AA28-AD28-Z28</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="Q28" s="7">
@@ -4296,11 +4298,11 @@
         <v>401</v>
       </c>
       <c r="O29" s="7">
-        <f>M29-N29</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="P29" s="7">
-        <f>N29-AA29-AD29-Z29</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="Q29" s="7">
@@ -4404,11 +4406,11 @@
         <v>439</v>
       </c>
       <c r="O30" s="7">
-        <f>M30-N30</f>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="P30" s="7">
-        <f>N30-AA30-AD30-Z30</f>
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="Q30" s="7">
@@ -4512,11 +4514,11 @@
         <v>282</v>
       </c>
       <c r="O31" s="7">
-        <f>M31-N31</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="P31" s="7">
-        <f>N31-AA31-AD31-Z31</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="Q31" s="7">
@@ -4620,11 +4622,11 @@
         <v>423</v>
       </c>
       <c r="O32" s="7">
-        <f>M32-N32</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="P32" s="7">
-        <f>N32-AA32-AD32-Z32</f>
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="Q32" s="7">
@@ -4728,11 +4730,11 @@
         <v>300</v>
       </c>
       <c r="O33" s="7">
-        <f>M33-N33</f>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="P33" s="7">
-        <f>N33-AA33-AD33-Z33</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="Q33" s="7">
@@ -4836,11 +4838,11 @@
         <v>401</v>
       </c>
       <c r="O34" s="7">
-        <f>M34-N34</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="P34" s="7">
-        <f>N34-AA34-AD34-Z34</f>
+        <f t="shared" ref="P34:P65" si="3">N34-AA34-AD34-Z34</f>
         <v>146</v>
       </c>
       <c r="Q34" s="7">
@@ -4944,11 +4946,11 @@
         <v>25</v>
       </c>
       <c r="O35" s="7">
-        <f>M35-N35</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="P35" s="7">
-        <f>N35-AA35-AD35-Z35</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q35" s="7">
@@ -5054,11 +5056,11 @@
         <v>376</v>
       </c>
       <c r="O36" s="7">
-        <f>M36-N36</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="P36" s="7">
-        <f>N36-AA36-AD36-Z36</f>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="Q36" s="7">
@@ -5163,11 +5165,11 @@
         <v>282</v>
       </c>
       <c r="O37" s="7">
-        <f>M37-N37</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="P37" s="7">
-        <f>N37-AA37-AD37-Z37</f>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="Q37" s="7">
@@ -5271,11 +5273,11 @@
         <v>141</v>
       </c>
       <c r="O38" s="7">
-        <f>M38-N38</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="P38" s="7">
-        <f>N38-AA38-AD38-Z38</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="Q38" s="7">
@@ -5379,11 +5381,11 @@
         <v>350</v>
       </c>
       <c r="O39" s="7">
-        <f>M39-N39</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="P39" s="7">
-        <f>N39-AA39-AD39-Z39</f>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="Q39" s="7">
@@ -5441,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>51</v>
       </c>
@@ -5465,7 +5467,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="19">
         <v>10</v>
       </c>
       <c r="I40" s="3">
@@ -5493,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="7">
-        <f>N40-AA40-AD40-Z40</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="Q40" s="7">
@@ -5551,7 +5553,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>77</v>
       </c>
@@ -5575,7 +5577,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="19">
         <v>10</v>
       </c>
       <c r="I41" s="3">
@@ -5603,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="7">
-        <f>N41-AA41-AD41-Z41</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="Q41" s="7">
@@ -5713,7 +5715,7 @@
         <v>18</v>
       </c>
       <c r="P42" s="7">
-        <f>N42-AA42-AD42-Z42</f>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="Q42" s="7">
@@ -5820,7 +5822,7 @@
         <v>93</v>
       </c>
       <c r="P43" s="7">
-        <f>N43-AA43-AD43-Z43</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="Q43" s="7">
@@ -5928,7 +5930,7 @@
         <v>25</v>
       </c>
       <c r="P44" s="7">
-        <f>N44-AA44-AD44-Z44</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q44" s="7">
@@ -5988,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>115</v>
       </c>
@@ -6012,7 +6014,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="19">
         <v>11</v>
       </c>
       <c r="I45" s="3">
@@ -6040,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="7">
-        <f>N45-AA45-AD45-Z45</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="Q45" s="7">
@@ -6146,11 +6148,11 @@
         <v>25</v>
       </c>
       <c r="O46" s="7">
-        <f>M46-N46</f>
+        <f t="shared" ref="O46:O60" si="4">M46-N46</f>
         <v>25</v>
       </c>
       <c r="P46" s="7">
-        <f>N46-AA46-AD46-Z46</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q46" s="7">
@@ -6256,11 +6258,11 @@
         <v>50</v>
       </c>
       <c r="O47" s="7">
-        <f>M47-N47</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P47" s="7">
-        <f>N47-AA47-AD47-Z47</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="Q47" s="7">
@@ -6366,11 +6368,11 @@
         <v>50</v>
       </c>
       <c r="O48" s="7">
-        <f>M48-N48</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P48" s="7">
-        <f>N48-AA48-AD48-Z48</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="Q48" s="7">
@@ -6476,11 +6478,11 @@
         <v>349</v>
       </c>
       <c r="O49" s="7">
-        <f>M49-N49</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="P49" s="7">
-        <f>N49-AA49-AD49-Z49</f>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="Q49" s="7">
@@ -6584,11 +6586,11 @@
         <v>600</v>
       </c>
       <c r="O50" s="7">
-        <f>M50-N50</f>
+        <f t="shared" si="4"/>
         <v>248</v>
       </c>
       <c r="P50" s="7">
-        <f>N50-AA50-AD50-Z50</f>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
       <c r="Q50" s="7">
@@ -6691,11 +6693,11 @@
         <v>235</v>
       </c>
       <c r="O51" s="7">
-        <f>M51-N51</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="P51" s="7">
-        <f>N51-AA51-AD51-Z51</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Q51" s="7">
@@ -6799,11 +6801,11 @@
         <v>50</v>
       </c>
       <c r="O52" s="7">
-        <f>M52-N52</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P52" s="7">
-        <f>N52-AA52-AD52-Z52</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="Q52" s="7">
@@ -6909,11 +6911,11 @@
         <v>280</v>
       </c>
       <c r="O53" s="7">
-        <f>M53-N53</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P53" s="7">
-        <f>N53-AA53-AD53-Z53</f>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="Q53" s="7">
@@ -7016,11 +7018,11 @@
         <v>213</v>
       </c>
       <c r="O54" s="7">
-        <f>M54-N54</f>
+        <f t="shared" si="4"/>
         <v>187</v>
       </c>
       <c r="P54" s="7">
-        <f>N54-AA54-AD54-Z54</f>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="Q54" s="7">
@@ -7124,11 +7126,11 @@
         <v>705</v>
       </c>
       <c r="O55" s="7">
-        <f>M55-N55</f>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="P55" s="7">
-        <f>N55-AA55-AD55-Z55</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="Q55" s="7">
@@ -7231,11 +7233,11 @@
         <v>282</v>
       </c>
       <c r="O56" s="7">
-        <f>M56-N56</f>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="P56" s="7">
-        <f>N56-AA56-AD56-Z56</f>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="Q56" s="7">
@@ -7340,11 +7342,11 @@
         <v>50</v>
       </c>
       <c r="O57" s="7">
-        <f>M57-N57</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P57" s="7">
-        <f>N57-AA57-AD57-Z57</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="Q57" s="7">
@@ -7450,11 +7452,11 @@
         <v>50</v>
       </c>
       <c r="O58" s="7">
-        <f>M58-N58</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="P58" s="7">
-        <f>N58-AA58-AD58-Z58</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="Q58" s="7">
@@ -7560,11 +7562,11 @@
         <v>361</v>
       </c>
       <c r="O59" s="7">
-        <f>M59-N59</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="P59" s="7">
-        <f>N59-AA59-AD59-Z59</f>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="Q59" s="7">
@@ -7668,11 +7670,11 @@
         <v>25</v>
       </c>
       <c r="O60" s="7">
-        <f>M60-N60</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="P60" s="7">
-        <f>N60-AA60-AD60-Z60</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q60" s="7">
@@ -7732,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>121</v>
       </c>
@@ -7756,7 +7758,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="19">
         <v>13</v>
       </c>
       <c r="I61" s="3">
@@ -7784,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="7">
-        <f>N61-AA61-AD61-Z61</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="Q61" s="7">
@@ -7894,7 +7896,7 @@
         <v>25</v>
       </c>
       <c r="P62" s="7">
-        <f>N62-AA62-AD62-Z62</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q62" s="7">
@@ -8004,7 +8006,7 @@
         <v>25</v>
       </c>
       <c r="P63" s="7">
-        <f>N63-AA63-AD63-Z63</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q63" s="7">
@@ -8114,7 +8116,7 @@
         <v>78</v>
       </c>
       <c r="P64" s="7">
-        <f>N64-AA64-AD64-Z64</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="Q64" s="7">
@@ -8172,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>52</v>
       </c>
@@ -8196,7 +8198,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="19">
         <v>14</v>
       </c>
       <c r="I65" s="3">
@@ -8224,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="7">
-        <f>N65-AA65-AD65-Z65</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="Q65" s="7">
@@ -8282,7 +8284,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -8306,7 +8308,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="19">
         <v>14</v>
       </c>
       <c r="I66" s="3">
@@ -8334,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="7">
-        <f>N66-AA66-AD66-Z66</f>
+        <f t="shared" ref="P66:P92" si="5">N66-AA66-AD66-Z66</f>
         <v>1000</v>
       </c>
       <c r="Q66" s="7">
@@ -8444,7 +8446,7 @@
         <v>50</v>
       </c>
       <c r="P67" s="7">
-        <f>N67-AA67-AD67-Z67</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="Q67" s="7">
@@ -8554,7 +8556,7 @@
         <v>50</v>
       </c>
       <c r="P68" s="7">
-        <f>N68-AA68-AD68-Z68</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="Q68" s="7">
@@ -8614,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>168</v>
       </c>
@@ -8638,7 +8640,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="18">
         <v>14</v>
       </c>
       <c r="I69" s="3">
@@ -8666,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="7">
-        <f>N69-AA69-AD69-Z69</f>
+        <f t="shared" si="5"/>
         <v>1100</v>
       </c>
       <c r="Q69" s="7">
@@ -8776,7 +8778,7 @@
         <v>25</v>
       </c>
       <c r="P70" s="7">
-        <f>N70-AA70-AD70-Z70</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q70" s="7">
@@ -8885,7 +8887,7 @@
         <v>25</v>
       </c>
       <c r="P71" s="7">
-        <f>N71-AA71-AD71-Z71</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q71" s="7">
@@ -8991,11 +8993,11 @@
         <v>50</v>
       </c>
       <c r="O72" s="7">
-        <f>M72-N72</f>
+        <f t="shared" ref="O72:O80" si="6">M72-N72</f>
         <v>50</v>
       </c>
       <c r="P72" s="7">
-        <f>N72-AA72-AD72-Z72</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="Q72" s="7">
@@ -9101,11 +9103,11 @@
         <v>25</v>
       </c>
       <c r="O73" s="7">
-        <f>M73-N73</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="P73" s="7">
-        <f>N73-AA73-AD73-Z73</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q73" s="7">
@@ -9211,11 +9213,11 @@
         <v>25</v>
       </c>
       <c r="O74" s="7">
-        <f>M74-N74</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="P74" s="7">
-        <f>N74-AA74-AD74-Z74</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q74" s="7">
@@ -9321,11 +9323,11 @@
         <v>25</v>
       </c>
       <c r="O75" s="7">
-        <f>M75-N75</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="P75" s="7">
-        <f>N75-AA75-AD75-Z75</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q75" s="7">
@@ -9429,11 +9431,11 @@
         <v>25</v>
       </c>
       <c r="O76" s="7">
-        <f>M76-N76</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="P76" s="7">
-        <f>N76-AA76-AD76-Z76</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q76" s="7">
@@ -9525,11 +9527,11 @@
         <v>25</v>
       </c>
       <c r="O77" s="7">
-        <f>M77-N77</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="P77" s="7">
-        <f>N77-AA77-AD77-Z77</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q77" s="7">
@@ -9635,11 +9637,11 @@
         <v>75</v>
       </c>
       <c r="O78" s="7">
-        <f>M78-N78</f>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="P78" s="7">
-        <f>N78-AA78-AD78-Z78</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="Q78" s="7">
@@ -9745,11 +9747,11 @@
         <v>50</v>
       </c>
       <c r="O79" s="7">
-        <f>M79-N79</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="P79" s="7">
-        <f>N79-AA79-AD79-Z79</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="Q79" s="7">
@@ -9855,11 +9857,11 @@
         <v>75</v>
       </c>
       <c r="O80" s="7">
-        <f>M80-N80</f>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="P80" s="7">
-        <f>N80-AA80-AD80-Z80</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="Q80" s="7">
@@ -9919,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>120</v>
       </c>
@@ -9943,7 +9945,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="18">
         <v>14</v>
       </c>
       <c r="I81" s="3">
@@ -9971,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="7">
-        <f>N81-AA81-AD81-Z81</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="Q81" s="7">
@@ -10031,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>122</v>
       </c>
@@ -10055,7 +10057,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="18">
         <v>14</v>
       </c>
       <c r="I82" s="3">
@@ -10083,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="7">
-        <f>N82-AA82-AD82-Z82</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="Q82" s="7">
@@ -10193,7 +10195,7 @@
         <v>25</v>
       </c>
       <c r="P83" s="7">
-        <f>N83-AA83-AD83-Z83</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q83" s="7">
@@ -10303,7 +10305,7 @@
         <v>50</v>
       </c>
       <c r="P84" s="7">
-        <f>N84-AA84-AD84-Z84</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="Q84" s="7">
@@ -10363,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>128</v>
       </c>
@@ -10387,7 +10389,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="18">
         <v>14</v>
       </c>
       <c r="I85" s="3">
@@ -10415,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="7">
-        <f>N85-AA85-AD85-Z85</f>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="Q85" s="7">
@@ -10475,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>133</v>
       </c>
@@ -10499,7 +10501,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="18">
         <v>14</v>
       </c>
       <c r="I86" s="3">
@@ -10527,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="7">
-        <f>N86-AA86-AD86-Z86</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="Q86" s="7">
@@ -10637,7 +10639,7 @@
         <v>50</v>
       </c>
       <c r="P87" s="7">
-        <f>N87-AA87-AD87-Z87</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="Q87" s="7">
@@ -10747,7 +10749,7 @@
         <v>25</v>
       </c>
       <c r="P88" s="7">
-        <f>N88-AA88-AD88-Z88</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q88" s="7">
@@ -10857,7 +10859,7 @@
         <v>25</v>
       </c>
       <c r="P89" s="7">
-        <f>N89-AA89-AD89-Z89</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q89" s="7">
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>154</v>
       </c>
@@ -10941,7 +10943,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="18">
         <v>14</v>
       </c>
       <c r="I90" s="3">
@@ -10969,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="7">
-        <f>N90-AA90-AD90-Z90</f>
+        <f t="shared" si="5"/>
         <v>700</v>
       </c>
       <c r="Q90" s="7">
@@ -11079,7 +11081,7 @@
         <v>50</v>
       </c>
       <c r="P91" s="7">
-        <f>N91-AA91-AD91-Z91</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q91" s="7">
@@ -11138,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>21017</v>
       </c>
@@ -11162,7 +11164,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="18">
         <v>14</v>
       </c>
       <c r="I92" s="3">
@@ -11190,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="P92" s="7">
-        <f>N92-AA92-AD92-Z92</f>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="Q92" s="8">
@@ -12431,13 +12433,7 @@
       <c r="F486" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD92" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="公办"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD486">
     <sortCondition ref="F2:F486"/>
   </sortState>
